--- a/src/attributions/attributions_saliency_traj_120.xlsx
+++ b/src/attributions/attributions_saliency_traj_120.xlsx
@@ -1573,1709 +1573,1709 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.001414032652974129</v>
+        <v>0.04754865169525146</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0005753291770815849</v>
+        <v>0.1162677258253098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03623810410499573</v>
+        <v>0.2629450261592865</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0007677748799324036</v>
+        <v>0.09316883981227875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0430867001414299</v>
+        <v>0.1666180640459061</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001267493702471256</v>
+        <v>0.1342809796333313</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01473823189735413</v>
+        <v>0.05069919675588608</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009296311065554619</v>
+        <v>0.04508233070373535</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02476366236805916</v>
+        <v>0.1885255873203278</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001808489207178354</v>
+        <v>0.1733875572681427</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01058265473693609</v>
+        <v>0.08963055908679962</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03709772974252701</v>
+        <v>0.1959518194198608</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002987360581755638</v>
+        <v>0.01677381619811058</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02627511881291866</v>
+        <v>0.2001842558383942</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001182202715426683</v>
+        <v>0.04718830436468124</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01194864697754383</v>
+        <v>0.0006602257490158081</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01048887055367231</v>
+        <v>0.02422178909182549</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02512624673545361</v>
+        <v>0.3006877303123474</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0002067313762381673</v>
+        <v>0.006682122126221657</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01380258798599243</v>
+        <v>0.04771080613136292</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001702049747109413</v>
+        <v>0.0409688726067543</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01265135407447815</v>
+        <v>0.05788920074701309</v>
       </c>
       <c r="W3" t="n">
-        <v>0.002229886362329125</v>
+        <v>0.02329583093523979</v>
       </c>
       <c r="X3" t="n">
-        <v>0.003290417138487101</v>
+        <v>0.04894679039716721</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001368243363685906</v>
+        <v>0.001889018807560205</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.008520769886672497</v>
+        <v>0.0464017316699028</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0007002691272646189</v>
+        <v>0.05034486576914787</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.002971603069454432</v>
+        <v>0.04527433589100838</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.004044040106236935</v>
+        <v>0.05651211366057396</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.002162333112210035</v>
+        <v>0.0003961268812417984</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.003437819425016642</v>
+        <v>0.03314660862088203</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.00760162016376853</v>
+        <v>0.1183149591088295</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.004141289740800858</v>
+        <v>0.05228754132986069</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.002621446968987584</v>
+        <v>0.05448202416300774</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.009126833640038967</v>
+        <v>0.03773347660899162</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.01201917417347431</v>
+        <v>0.09092381596565247</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.003761070780456066</v>
+        <v>0.03903386741876602</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.008295813575387001</v>
+        <v>0.0442546010017395</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.002732582855969667</v>
+        <v>0.001630263403058052</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.001675693783909082</v>
+        <v>0.09213171899318695</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.004339988343417645</v>
+        <v>0.01623392105102539</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.0003512217081151903</v>
+        <v>0.003496636170893908</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.001686027972027659</v>
+        <v>0.04592509940266609</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.003195791970938444</v>
+        <v>0.02860911190509796</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.001601098920218647</v>
+        <v>0.04315558075904846</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.002551358193159103</v>
+        <v>0.02667295560240746</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.004309202544391155</v>
+        <v>0.05824218317866325</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02305469289422035</v>
+        <v>0.05841673910617828</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.003540881210938096</v>
+        <v>0.05538565665483475</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.02017121389508247</v>
+        <v>0.03233282640576363</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.01509811822324991</v>
+        <v>0.03189224004745483</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.003338603768497705</v>
+        <v>0.08209652453660965</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.01681099832057953</v>
+        <v>0.08694314956665039</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.01456862594932318</v>
+        <v>0.1285299807786942</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0006785044097341597</v>
+        <v>0.01547306403517723</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.00289913872256875</v>
+        <v>0.1198792159557343</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.009980629198253155</v>
+        <v>0.1310833543539047</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.004536481574177742</v>
+        <v>0.09440194070339203</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.008504360914230347</v>
+        <v>0.1530030220746994</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.006341984495520592</v>
+        <v>0.1432952433824539</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.006036899052560329</v>
+        <v>0.005630210041999817</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.002275470644235611</v>
+        <v>0.04489500820636749</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.002113864524289966</v>
+        <v>0.2306619584560394</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.00216430751606822</v>
+        <v>0.01919778808951378</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.001227389904670417</v>
+        <v>0.07085996121168137</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.01042255386710167</v>
+        <v>0.01918434351682663</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.002838498912751675</v>
+        <v>0.05631889402866364</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.002496210159733891</v>
+        <v>0.04070849344134331</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.009955105371773243</v>
+        <v>0.03504061326384544</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.001538369338959455</v>
+        <v>0.01628545112907887</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.004896829836070538</v>
+        <v>0.02692192792892456</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.006337999366223812</v>
+        <v>0.07381186634302139</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.007676325738430023</v>
+        <v>0.05433351546525955</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.003473395947366953</v>
+        <v>0.07006697356700897</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.0061878627166152</v>
+        <v>0.002319201827049255</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.00404050201177597</v>
+        <v>0.008556464686989784</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.0236065685749054</v>
+        <v>0.05073067918419838</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.008502981625497341</v>
+        <v>0.0324198454618454</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.0004421370103955269</v>
+        <v>0.02816189825534821</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.005057558417320251</v>
+        <v>0.05767560377717018</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.01851938664913177</v>
+        <v>0.1021875813603401</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.002495401073247194</v>
+        <v>0.0214531198143959</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.008234383538365364</v>
+        <v>0.01664005964994431</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.007964026182889938</v>
+        <v>0.04445897042751312</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.002133655594661832</v>
+        <v>0.03903764858841896</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.008746588602662086</v>
+        <v>0.01321196835488081</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.0001981174573302269</v>
+        <v>0.008339513093233109</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.004159052856266499</v>
+        <v>0.002154194284230471</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.001654505380429327</v>
+        <v>0.0270842406898737</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.002991983201354742</v>
+        <v>0.03055536933243275</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.00179322378244251</v>
+        <v>0.03504546731710434</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.01826600730419159</v>
+        <v>0.06239284947514534</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.004171560052782297</v>
+        <v>0.003917680121958256</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.005208080168813467</v>
+        <v>0.1148447021842003</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.01066962257027626</v>
+        <v>0.0395040474832058</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.001553070731461048</v>
+        <v>0.009407801553606987</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.002588415751233697</v>
+        <v>0.01095785945653915</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.009777393192052841</v>
+        <v>0.01352925226092339</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.003362241899594665</v>
+        <v>0.01507287286221981</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.002409001113846898</v>
+        <v>0.01820493116974831</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.006404240615665913</v>
+        <v>0.01711305789649487</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.008031386882066727</v>
+        <v>0.04108504951000214</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.001196318888105452</v>
+        <v>0.0452314019203186</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.01267873123288155</v>
+        <v>0.005426919087767601</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.002328013302758336</v>
+        <v>0.03765591233968735</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.005974888801574707</v>
+        <v>0.0004104666877537966</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.0004417183226905763</v>
+        <v>0.007245218846946955</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.004652143456041813</v>
+        <v>0.04112048074603081</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.003502276493236423</v>
+        <v>0.00915967021137476</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.01372703164815903</v>
+        <v>0.03593648597598076</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.01514684967696667</v>
+        <v>0.1217673122882843</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.01396277546882629</v>
+        <v>0.06430442631244659</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.004416655749082565</v>
+        <v>0.06865383684635162</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.0003376281820237637</v>
+        <v>0.09186157584190369</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.0132778799161315</v>
+        <v>0.06005822867155075</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.003284287173300982</v>
+        <v>0.07419274747371674</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.0103311613202095</v>
+        <v>0.09031921625137329</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0003561666235327721</v>
+        <v>0.01898711547255516</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.008999365381896496</v>
+        <v>0.04146139696240425</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.005646153353154659</v>
+        <v>0.004441248252987862</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.002622210187837481</v>
+        <v>0.05879822373390198</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.007995155639946461</v>
+        <v>0.1335482001304626</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.008106165565550327</v>
+        <v>0.05529892444610596</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.002229304518550634</v>
+        <v>0.1185916364192963</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.003351855557411909</v>
+        <v>0.06188273057341576</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.002935069613158703</v>
+        <v>0.04960087314248085</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.0001110641460400075</v>
+        <v>0.008149353787302971</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0008543496951460838</v>
+        <v>0.02159641496837139</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.001294540357775986</v>
+        <v>0.004832022823393345</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.003363673109561205</v>
+        <v>0.05658077821135521</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.003232832532376051</v>
+        <v>0.07533159852027893</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.006895238067954779</v>
+        <v>0.05017789453268051</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.0007975043263286352</v>
+        <v>0.0220078993588686</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.004936509300023317</v>
+        <v>0.04666971415281296</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.002700603101402521</v>
+        <v>0.01418940722942352</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.003148861462250352</v>
+        <v>0.02758815512061119</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.006371560040861368</v>
+        <v>0.007829619571566582</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.006948249880224466</v>
+        <v>0.07318636029958725</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.002359868725761771</v>
+        <v>0.03927720338106155</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.002805441850796342</v>
+        <v>0.008840324357151985</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.007340266369283199</v>
+        <v>0.1036547720432281</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.003840674180537462</v>
+        <v>0.008741150610148907</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.002910418435931206</v>
+        <v>0.003021888434886932</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.002078056568279862</v>
+        <v>0.06964485347270966</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.002063832012936473</v>
+        <v>0.04116971790790558</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.003815716598182917</v>
+        <v>0.002985518425703049</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.0006978987366892397</v>
+        <v>0.03299105167388916</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.002277895575389266</v>
+        <v>0.01234283857047558</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.007521649356931448</v>
+        <v>0.04909888654947281</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.00833523366600275</v>
+        <v>0.01955380663275719</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.006449819076806307</v>
+        <v>0.04144784435629845</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.001538238720968366</v>
+        <v>0.07598321884870529</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.001346039469353855</v>
+        <v>0.07639749348163605</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.002065074630081654</v>
+        <v>0.02367603220045567</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.006015998311340809</v>
+        <v>0.01224615145474672</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.007990647107362747</v>
+        <v>0.04656770825386047</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.001237162388861179</v>
+        <v>0.05865002050995827</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.009568257257342339</v>
+        <v>0.0004982114769518375</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.004019057378172874</v>
+        <v>0.03809848055243492</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.004768915474414825</v>
+        <v>0.01358016021549702</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.001266009639948606</v>
+        <v>0.01958546787500381</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.005014681722968817</v>
+        <v>0.04016574844717979</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.0003760942490771413</v>
+        <v>0.007561067119240761</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.001999376807361841</v>
+        <v>0.02798346057534218</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.003943170420825481</v>
+        <v>0.03140166401863098</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.001913495594635606</v>
+        <v>0.003066850826144218</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.008705304935574532</v>
+        <v>0.01613898761570454</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.005279161501675844</v>
+        <v>0.008451962843537331</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.002442935481667519</v>
+        <v>0.06579597294330597</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.008185649290680885</v>
+        <v>0.008306082338094711</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.01614104770123959</v>
+        <v>0.05499821901321411</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.0002144287573173642</v>
+        <v>0.03274104744195938</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.01408727653324604</v>
+        <v>0.009991588070988655</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.003786220215260983</v>
+        <v>0.001273086294531822</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.01369795203208923</v>
+        <v>0.1398913860321045</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.0005278373137116432</v>
+        <v>0.05108447372913361</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.0003561771009117365</v>
+        <v>0.02939286828041077</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.001750312512740493</v>
+        <v>0.04311265796422958</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.00723118195310235</v>
+        <v>0.05066953226923943</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.002834965474903584</v>
+        <v>0.02849035896360874</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003456006292253733</v>
+        <v>0.0135041456669569</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.0050729108043015</v>
+        <v>0.00701805017888546</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.003258021082729101</v>
+        <v>0.006755460053682327</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.00417565181851387</v>
+        <v>0.008571762591600418</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.001195890479721129</v>
+        <v>0.005457504652440548</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.004300668369978666</v>
+        <v>0.07677275687456131</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.002672931645065546</v>
+        <v>0.04788729175925255</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.009245886467397213</v>
+        <v>0.0181653555482626</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.0005960701964795589</v>
+        <v>0.04425964504480362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0001605502038728446</v>
+        <v>0.0001054089952958748</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0004727008636109531</v>
+        <v>0.0005269109969958663</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001234301598742604</v>
+        <v>3.229772119084373e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>3.526559157762676e-05</v>
+        <v>0.0002758476766757667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002021249383687973</v>
+        <v>6.357562961056828e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0001115259656216949</v>
+        <v>0.0001601596595719457</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002761076029855758</v>
+        <v>4.647481546271592e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0002400762459728867</v>
+        <v>3.144330548821017e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001397388172335923</v>
+        <v>2.851825956895482e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>2.08362762350589e-05</v>
+        <v>0.0001166026922874153</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003950803657062352</v>
+        <v>0.0003465548506937921</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001526833279058337</v>
+        <v>4.890445779892616e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003403389418963343</v>
+        <v>0.0002166703634429723</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001728973467834294</v>
+        <v>0.0001100976660382003</v>
       </c>
       <c r="O4" t="n">
-        <v>7.705052848905325e-05</v>
+        <v>0.0001920261129271239</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0002820391382556409</v>
+        <v>4.561497189570218e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0001299201103392988</v>
+        <v>0.0001132530742324889</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00134028831962496</v>
+        <v>2.435248097754084e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>2.704775033635087e-05</v>
+        <v>4.514085503615206e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>9.177182801067829e-05</v>
+        <v>7.111611193977296e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0001274520909646526</v>
+        <v>5.442157089419197e-07</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0005096119130030274</v>
+        <v>4.163276753388345e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>2.209588274126872e-06</v>
+        <v>1.24211337606539e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>8.086820344033185e-06</v>
+        <v>6.254809704842046e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.000484800199046731</v>
+        <v>8.382523083128035e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.162219844758511e-05</v>
+        <v>2.443630728521384e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0001626474841032177</v>
+        <v>2.720887641771697e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.842759906547144e-05</v>
+        <v>2.458629751345143e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.020952085033059e-05</v>
+        <v>7.727214688202366e-05</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0004790214297827333</v>
+        <v>2.601869164209347e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>8.101798448478803e-05</v>
+        <v>3.332702544867061e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0001369378151139244</v>
+        <v>4.303396781324409e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0001358353765681386</v>
+        <v>3.498326259432361e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0001675153762334958</v>
+        <v>2.119399141520262e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0004570634919218719</v>
+        <v>2.442506411171053e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0004513242747634649</v>
+        <v>4.528857243712991e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.196876084781252e-05</v>
+        <v>4.226617602398619e-05</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0004905983805656433</v>
+        <v>5.848459113622084e-05</v>
       </c>
       <c r="AM4" t="n">
-        <v>9.510659583611414e-05</v>
+        <v>9.217495971824974e-06</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.352698983391747e-05</v>
+        <v>8.695325050211977e-06</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0001743935863487422</v>
+        <v>4.014875685243169e-06</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0006971470429562032</v>
+        <v>6.512549589388072e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>3.207514237146825e-05</v>
+        <v>3.124525028397329e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.000282555993180722</v>
+        <v>1.166443871625233e-05</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.412732101220172e-05</v>
+        <v>3.474445475148968e-05</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0002732908469624817</v>
+        <v>3.102393020526506e-05</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.0007271079812198877</v>
+        <v>0.0003698987129610032</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.001080841990187764</v>
+        <v>6.240287802938838e-06</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0001125145208789036</v>
+        <v>0.0001127414871007204</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0007016581948846579</v>
+        <v>5.181479355087504e-05</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.001240794314071536</v>
+        <v>7.061282303766347e-06</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.0001683436566963792</v>
+        <v>3.027378988917917e-05</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0004462704237084836</v>
+        <v>2.683937054825947e-05</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.0003241170779801905</v>
+        <v>7.570092566311359e-05</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.855416849139147e-05</v>
+        <v>6.316321378108114e-05</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.0001159843523055315</v>
+        <v>7.785419438732788e-05</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.0002994524547830224</v>
+        <v>7.591967732878402e-05</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.0002752665604930371</v>
+        <v>6.577647582162172e-07</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0003166012174915522</v>
+        <v>0.0001331228268099949</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.000513222417794168</v>
+        <v>9.702542593004182e-05</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.06232037069276e-05</v>
+        <v>6.083460175432265e-05</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0002815236221067607</v>
+        <v>8.520752453478053e-05</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0005956191453151405</v>
+        <v>1.532692112959921e-05</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.0001362558541586623</v>
+        <v>3.547689630067907e-05</v>
       </c>
       <c r="BM4" t="n">
-        <v>6.239789945539087e-05</v>
+        <v>2.410120578133501e-05</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0007118645589798689</v>
+        <v>8.811171937850304e-06</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0003440571599639952</v>
+        <v>6.885004404466599e-05</v>
       </c>
       <c r="BP4" t="n">
-        <v>2.234087878605351e-05</v>
+        <v>1.568694642628543e-05</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.0001634520449442789</v>
+        <v>8.065468136919662e-06</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.0002007425937335938</v>
+        <v>4.415220246301033e-06</v>
       </c>
       <c r="BS4" t="n">
-        <v>5.88268885621801e-05</v>
+        <v>1.912274638016243e-05</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.0001304314791923389</v>
+        <v>6.155038136057556e-06</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.591301745269448e-05</v>
+        <v>2.386566120549105e-05</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0004048085247632116</v>
+        <v>0.0001811315305531025</v>
       </c>
       <c r="BW4" t="n">
-        <v>8.269090903922915e-05</v>
+        <v>1.304804573010188e-05</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.000117044837679714</v>
+        <v>3.286975334049203e-05</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.0006291024037636817</v>
+        <v>2.75078145932639e-05</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.0001342783798463643</v>
+        <v>0.0001259109412785619</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.0002834471524693072</v>
+        <v>2.503857467672788e-05</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.0002872991899494082</v>
+        <v>2.34246199397603e-05</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.0005656391149386764</v>
+        <v>2.893303280870896e-05</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.0001130477612605318</v>
+        <v>3.325854049762711e-05</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.0003418694832362235</v>
+        <v>8.838780195219442e-05</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0002751717111095786</v>
+        <v>2.965546991617884e-05</v>
       </c>
       <c r="CG4" t="n">
-        <v>5.905807483941317e-06</v>
+        <v>2.604140900075436e-05</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.0004833445709664375</v>
+        <v>3.187026959494688e-05</v>
       </c>
       <c r="CI4" t="n">
-        <v>6.240321818040684e-05</v>
+        <v>4.615637226379476e-05</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3.441522858338431e-05</v>
+        <v>2.35219831665745e-05</v>
       </c>
       <c r="CK4" t="n">
-        <v>6.067764479666948e-05</v>
+        <v>4.406351763464045e-06</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.0001059494243236259</v>
+        <v>3.125894363620318e-05</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.0002249765821034089</v>
+        <v>2.335439421585761e-05</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.0008947724709287286</v>
+        <v>1.046497618517606e-05</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0001497147895861417</v>
+        <v>4.250279380357824e-05</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0003337668313179165</v>
+        <v>6.979965110076591e-05</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0001249949564225972</v>
+        <v>8.506204176228493e-05</v>
       </c>
       <c r="CR4" t="n">
-        <v>9.310192399425432e-05</v>
+        <v>5.92457436141558e-05</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.0001106742711272091</v>
+        <v>2.386628329986706e-05</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.0001232644717674702</v>
+        <v>0.000105247920146212</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.0002180778246838599</v>
+        <v>7.666432793485001e-06</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.0001261662837350741</v>
+        <v>2.539606066420674e-05</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.0004292381636332721</v>
+        <v>6.867467163829133e-05</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.000302745756926015</v>
+        <v>3.044667573703919e-05</v>
       </c>
       <c r="CY4" t="n">
-        <v>2.474512621120084e-05</v>
+        <v>6.147228123154491e-05</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.0005622341413982213</v>
+        <v>3.009473221027292e-05</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.0001248163753189147</v>
+        <v>5.913524000789039e-05</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.711847289698198e-05</v>
+        <v>1.668181721470319e-05</v>
       </c>
       <c r="DC4" t="n">
-        <v>2.764121018117294e-05</v>
+        <v>5.537658580578864e-07</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.0002098932309309021</v>
+        <v>2.124303500750102e-05</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.0001096267369575799</v>
+        <v>2.448288250889163e-05</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.0006045575719326735</v>
+        <v>9.2616472102236e-05</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.0006358275422826409</v>
+        <v>1.117947886086768e-05</v>
       </c>
       <c r="DH4" t="n">
-        <v>1.255128881894052e-05</v>
+        <v>0.0001359528978355229</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.0006780379335395992</v>
+        <v>3.22217820212245e-05</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.0001218354882439598</v>
+        <v>1.640373739064671e-05</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.0003107165975961834</v>
+        <v>4.599985550157726e-05</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.0002279291511513293</v>
+        <v>5.951410275883973e-05</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.0001906738762045279</v>
+        <v>1.324852200923488e-05</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.579511263116729e-05</v>
+        <v>6.17939222138375e-05</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.0002499593829270452</v>
+        <v>2.323192711628508e-05</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0001948012795764953</v>
+        <v>2.065095213765744e-05</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.0003633492742665112</v>
+        <v>1.064754178514704e-05</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.0001682116999290884</v>
+        <v>1.915614120662212e-06</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.0001950839068740606</v>
+        <v>7.623288547620177e-05</v>
       </c>
       <c r="DT4" t="n">
-        <v>2.623510590638034e-05</v>
+        <v>1.047326804837212e-05</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.0002241901820525527</v>
+        <v>9.259123544325121e-06</v>
       </c>
       <c r="DV4" t="n">
-        <v>7.793561962898821e-05</v>
+        <v>4.339355291449465e-05</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.0001333448599325493</v>
+        <v>4.264013477950357e-05</v>
       </c>
       <c r="DX4" t="n">
-        <v>5.126269752508961e-05</v>
+        <v>1.178225465992e-05</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.0002201174793299288</v>
+        <v>0.000106647152279038</v>
       </c>
       <c r="DZ4" t="n">
-        <v>4.747963248519227e-05</v>
+        <v>2.65309245151002e-05</v>
       </c>
       <c r="EA4" t="n">
-        <v>8.120237907860428e-05</v>
+        <v>6.95234484737739e-05</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.0001907392434077337</v>
+        <v>1.456153768231161e-05</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.0001111688980017789</v>
+        <v>6.111875336500816e-06</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0001335082342848182</v>
+        <v>2.661170401552226e-05</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.0001388711389154196</v>
+        <v>1.313881512032822e-05</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.0002022044791374356</v>
+        <v>2.052084346360061e-05</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.0004265754541847855</v>
+        <v>3.828223270829767e-05</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.0002106371975969523</v>
+        <v>7.85005704528885e-06</v>
       </c>
       <c r="EI4" t="n">
-        <v>3.021633528987877e-05</v>
+        <v>3.204232780262828e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.0004213713109493256</v>
+        <v>1.137581193688675e-06</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.0005527294124476612</v>
+        <v>4.251194332027808e-05</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.0001504364772699773</v>
+        <v>2.501751805539243e-05</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.0001628224126761779</v>
+        <v>2.904127541114576e-05</v>
       </c>
       <c r="EN4" t="n">
-        <v>9.785441943677142e-05</v>
+        <v>5.282397069095168e-06</v>
       </c>
       <c r="EO4" t="n">
-        <v>8.595631516072899e-05</v>
+        <v>2.78600309684407e-05</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.0001650830527069047</v>
+        <v>7.156277570175007e-05</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.0004363690677564591</v>
+        <v>1.431616510672029e-05</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.0001957385975401849</v>
+        <v>4.973063551005907e-05</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0003299138334114105</v>
+        <v>6.202334770932794e-05</v>
       </c>
       <c r="ET4" t="n">
-        <v>2.949659574369434e-05</v>
+        <v>0.0001690502103883773</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.0001245004532393068</v>
+        <v>8.053588317125104e-06</v>
       </c>
       <c r="EV4" t="n">
-        <v>4.38121278421022e-05</v>
+        <v>2.128617052221671e-05</v>
       </c>
       <c r="EW4" t="n">
-        <v>2.918181962741073e-05</v>
+        <v>2.432280234643258e-05</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.0001574971247464418</v>
+        <v>2.3039410734782e-05</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0004164960409980267</v>
+        <v>7.635373913217336e-05</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.0002987997431773692</v>
+        <v>7.358808943536133e-06</v>
       </c>
       <c r="FA4" t="n">
-        <v>6.515777931781486e-05</v>
+        <v>4.241320857545361e-05</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.0004503157688304782</v>
+        <v>2.983811100421008e-05</v>
       </c>
       <c r="FC4" t="n">
-        <v>2.243362905574031e-05</v>
+        <v>5.405360570875928e-05</v>
       </c>
       <c r="FD4" t="n">
-        <v>1.808970409911126e-05</v>
+        <v>1.975129089260008e-05</v>
       </c>
       <c r="FE4" t="n">
-        <v>2.681992918951437e-05</v>
+        <v>6.454363756347448e-06</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.0001950365403899923</v>
+        <v>2.6449873985257e-05</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.0001152418408310041</v>
+        <v>4.89801459480077e-06</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.0002948122564703226</v>
+        <v>2.88332266791258e-05</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.0003038246650248766</v>
+        <v>2.031691656156909e-05</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.0002111579960910603</v>
+        <v>7.785631169099361e-05</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.000508045544847846</v>
+        <v>1.243665610672906e-05</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.0005534663214348257</v>
+        <v>1.713247365842108e-05</v>
       </c>
       <c r="FM4" t="n">
-        <v>2.266354931634851e-05</v>
+        <v>3.443710374995135e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.0001086474439944141</v>
+        <v>1.89268212125171e-05</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.0002027316659223288</v>
+        <v>7.24377459846437e-05</v>
       </c>
       <c r="FP4" t="n">
-        <v>2.968619264720473e-05</v>
+        <v>4.98963936479413e-06</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.0005653338157571852</v>
+        <v>2.005523310799617e-05</v>
       </c>
       <c r="FR4" t="n">
-        <v>6.747219595126808e-05</v>
+        <v>4.169794556219131e-05</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.0003610894782468677</v>
+        <v>8.320096821989864e-05</v>
       </c>
       <c r="FT4" t="n">
-        <v>4.360006278147921e-05</v>
+        <v>0.0001657266984693706</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.0001189395843539387</v>
+        <v>1.565150159876794e-05</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.000278918188996613</v>
+        <v>1.528265420347452e-05</v>
       </c>
       <c r="FW4" t="n">
-        <v>3.579659096430987e-05</v>
+        <v>4.492583320825361e-05</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0002061286504613236</v>
+        <v>3.670001024147496e-05</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.0001020962663460523</v>
+        <v>3.542516424204223e-05</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.0001850223343353719</v>
+        <v>3.525693682604469e-05</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.000193592204595916</v>
+        <v>2.740717536653392e-05</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.0002099350240314379</v>
+        <v>2.190566192439292e-05</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.000112695233838167</v>
+        <v>9.141337795881554e-05</v>
       </c>
       <c r="GD4" t="n">
-        <v>5.288161264616065e-05</v>
+        <v>4.686623651650734e-05</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.0001213781361002475</v>
+        <v>8.899412205209956e-05</v>
       </c>
       <c r="GF4" t="n">
-        <v>7.929620915092528e-05</v>
+        <v>1.840793811425101e-05</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.0002771689905785024</v>
+        <v>3.783975262194872e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.003306594677269459</v>
+        <v>3.993773134425282e-07</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004204483702778816</v>
+        <v>7.331662345677614e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005802471656352282</v>
+        <v>1.38811528813676e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003783922176808119</v>
+        <v>2.506949022063054e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001198425656184554</v>
+        <v>1.270223947358318e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0009084129706025124</v>
+        <v>4.820540925720707e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0014932113699615</v>
+        <v>7.59316208132077e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002473159693181515</v>
+        <v>7.668593752896413e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01249144040048122</v>
+        <v>8.059645551838912e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005918350536376238</v>
+        <v>3.324302269902546e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001879947492852807</v>
+        <v>6.459909491240978e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01176148001104593</v>
+        <v>5.314631380315404e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006151421926915646</v>
+        <v>3.40717779181432e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.003829935099929571</v>
+        <v>3.446592745603994e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002533196937292814</v>
+        <v>5.869064625585452e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.004976827651262283</v>
+        <v>1.815001087379642e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.00278708036057651</v>
+        <v>1.246038573299302e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01479561533778906</v>
+        <v>6.874195150885498e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0002179123112000525</v>
+        <v>4.164353413216304e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001889261649921536</v>
+        <v>1.464317938371096e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>0.002115189563483</v>
+        <v>2.988943606396788e-06</v>
       </c>
       <c r="V5" t="n">
-        <v>0.003011804074048996</v>
+        <v>8.295196494145785e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>0.00196552462875843</v>
+        <v>3.047573954972904e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001145015005022287</v>
+        <v>1.20593231258681e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.005770975723862648</v>
+        <v>6.886269829919911e-07</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0002957921242341399</v>
+        <v>3.787348987316363e-06</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001738807768560946</v>
+        <v>7.701223694311921e-07</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0007254048832692206</v>
+        <v>1.279966454603709e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.002060953993350267</v>
+        <v>1.692769546934869e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.003404951188713312</v>
+        <v>1.78516456799116e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.003307094797492027</v>
+        <v>9.693217180029023e-06</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.515567656606436e-05</v>
+        <v>2.057215715467464e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.001096570631489158</v>
+        <v>1.076111129805213e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.004185350611805916</v>
+        <v>1.395883373334073e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.00413203751668334</v>
+        <v>4.222908501105849e-06</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.001302482094615698</v>
+        <v>1.11038002614805e-06</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0006952793337404728</v>
+        <v>3.356717343194759e-06</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.003297969000414014</v>
+        <v>1.366520427836804e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0004795875865966082</v>
+        <v>1.772328346305585e-06</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.001986799295991659</v>
+        <v>1.374588191538351e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.001337541150860488</v>
+        <v>9.949950481313863e-07</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.007784077432006598</v>
+        <v>1.112537574954331e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0005316257593221962</v>
+        <v>1.128572057496058e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.001613337430171669</v>
+        <v>6.890873009979259e-06</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.001060812966898084</v>
+        <v>5.453172207126045e-07</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.001788652967661619</v>
+        <v>1.08987815110595e-05</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.004257351160049438</v>
+        <v>5.343435623217374e-05</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.01042410358786583</v>
+        <v>7.234511940623634e-07</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.003332019317895174</v>
+        <v>1.021215848595602e-05</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.001672272221185267</v>
+        <v>2.267545823997352e-05</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.009153430350124836</v>
+        <v>1.596400215930771e-05</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.002032868331298232</v>
+        <v>2.091000169457402e-05</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.001398354070261121</v>
+        <v>8.204146070056595e-06</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0058489004150033</v>
+        <v>1.307018465013243e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.001738375867716968</v>
+        <v>2.137238425348187e-06</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.0005877774092368782</v>
+        <v>2.010935168073047e-05</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.00175704003777355</v>
+        <v>1.513172810518881e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.002200184855610132</v>
+        <v>1.001603868644452e-05</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.004448960535228252</v>
+        <v>4.812965198652819e-05</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.004322903696447611</v>
+        <v>3.456734339124523e-05</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.001562247052788734</v>
+        <v>1.789305497368332e-05</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.008883913047611713</v>
+        <v>1.154984420281835e-05</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.004353211726993322</v>
+        <v>3.332729647809174e-07</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.001438241102732718</v>
+        <v>1.068960318661993e-05</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.002836066065356135</v>
+        <v>1.663325633671775e-06</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.005057593807578087</v>
+        <v>8.933027856983244e-06</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.001662452123127878</v>
+        <v>2.134404212483787e-06</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.002646108623594046</v>
+        <v>2.25427356781438e-06</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0005143205635249615</v>
+        <v>8.882914698915556e-06</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.001395544735714793</v>
+        <v>1.3022919119976e-05</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0005517574609257281</v>
+        <v>5.493900061992463e-06</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0006117625744082034</v>
+        <v>2.286492644998361e-06</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.002860416658222675</v>
+        <v>4.693550181400497e-06</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.005309006664901972</v>
+        <v>2.579143074399326e-05</v>
       </c>
       <c r="BW5" t="n">
-        <v>6.819114787504077e-05</v>
+        <v>9.580939149600454e-06</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.002182908123359084</v>
+        <v>4.81568986288039e-06</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.001677570282481611</v>
+        <v>8.311150850204285e-06</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.001755918492563069</v>
+        <v>9.522346772428136e-06</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.002615822944790125</v>
+        <v>7.567025477328571e-06</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.00245185662060976</v>
+        <v>9.627808594814269e-07</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.002716687275096774</v>
+        <v>4.323660050431499e-06</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.002138559008017182</v>
+        <v>7.471087428712053e-07</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.006102165672928095</v>
+        <v>1.331569364992902e-05</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.001008158084005117</v>
+        <v>7.655128797523503e-07</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.001251949113793671</v>
+        <v>1.515823555564566e-06</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.001200574217364192</v>
+        <v>3.602355036491645e-06</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.0004357475554570556</v>
+        <v>6.67122139930143e-06</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0007255176897160709</v>
+        <v>9.055485861608759e-06</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.000605597801040858</v>
+        <v>1.760129407557542e-06</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.001299644238315523</v>
+        <v>3.011115950357635e-06</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.002986531239002943</v>
+        <v>7.795867531967815e-06</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0008168562781065702</v>
+        <v>1.140870062954491e-05</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0007034542504698038</v>
+        <v>2.038779257418355e-06</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.0009690664010122418</v>
+        <v>1.038474329106975e-05</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0003778320970013738</v>
+        <v>3.107164729954093e-07</v>
       </c>
       <c r="CR5" t="n">
-        <v>6.487159407697618e-05</v>
+        <v>8.741058081795927e-07</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.0003214356256648898</v>
+        <v>1.351948594674468e-05</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.004679689183831215</v>
+        <v>2.223520641564392e-05</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.003103447612375021</v>
+        <v>9.472541023569647e-06</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.002336257137358189</v>
+        <v>9.61434807322803e-07</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.005901529919356108</v>
+        <v>9.393335858476348e-06</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0007323548197746277</v>
+        <v>3.930697857867926e-06</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0001873201981652528</v>
+        <v>2.480119519532309e-06</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.001788026536814868</v>
+        <v>3.9964238567336e-06</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0003101550973951817</v>
+        <v>7.46059004086419e-06</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.000255459948675707</v>
+        <v>5.696721927961335e-06</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0001490653376094997</v>
+        <v>3.965046744269785e-07</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.001801404054276645</v>
+        <v>2.351068815187318e-06</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0004077095072716475</v>
+        <v>1.046109628077829e-05</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.01029662787914276</v>
+        <v>1.692060141067486e-05</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.00990061741322279</v>
+        <v>2.034714452747721e-05</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.003897988935932517</v>
+        <v>2.754724846454337e-06</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.001987181603908539</v>
+        <v>1.764974149409682e-05</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.007022463716566563</v>
+        <v>2.771314939309377e-05</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.002089896239340305</v>
+        <v>1.350916318187956e-05</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.001038304297253489</v>
+        <v>1.609710670891218e-05</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.001822709804400802</v>
+        <v>2.3181510186987e-06</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0003239514771848917</v>
+        <v>1.463047055949573e-06</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.001084976946003735</v>
+        <v>7.719929271843284e-06</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.003474042750895023</v>
+        <v>1.049506522576849e-06</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.002574203535914421</v>
+        <v>2.398166907369159e-05</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.002774158027023077</v>
+        <v>1.086880729417317e-05</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.00304681807756424</v>
+        <v>1.512024755356833e-05</v>
       </c>
       <c r="DT5" t="n">
-        <v>6.700100493617356e-05</v>
+        <v>3.38123618348618e-06</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.001432477263733745</v>
+        <v>5.522604169527767e-06</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.002076482400298119</v>
+        <v>1.923480112964171e-06</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.001008427934721112</v>
+        <v>5.88319653616054e-06</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0003254692128393799</v>
+        <v>3.30544708049274e-06</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.00182942277751863</v>
+        <v>3.129695414827438e-06</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.001651278114877641</v>
+        <v>2.074432632070966e-05</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0022259505931288</v>
+        <v>7.384244327113265e-09</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.00116346194408834</v>
+        <v>1.684048584138509e-05</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.000465904304292053</v>
+        <v>1.416005761711858e-05</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.0009316324139945209</v>
+        <v>2.565982686064672e-05</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.001370245590806007</v>
+        <v>5.696551397704752e-06</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.00408854428678751</v>
+        <v>4.052662461617729e-06</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.008930684998631477</v>
+        <v>9.503713044978213e-06</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.001364243915304542</v>
+        <v>2.186417532357154e-06</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.001005452824756503</v>
+        <v>2.085435153276194e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0008046680595725775</v>
+        <v>8.851254278852139e-06</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.003553888527676463</v>
+        <v>1.754502591211349e-06</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.0003450519288890064</v>
+        <v>1.870312553364784e-05</v>
       </c>
       <c r="EM5" t="n">
-        <v>1.838502794271335e-05</v>
+        <v>7.392459338007029e-07</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.00233067711815238</v>
+        <v>1.172273982774641e-06</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0005665145581588149</v>
+        <v>2.075795009659487e-06</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.004576041363179684</v>
+        <v>3.460165544311167e-06</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.001102977199479938</v>
+        <v>8.115648597595282e-06</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.001613884815014899</v>
+        <v>9.494740879745223e-06</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.002712659770622849</v>
+        <v>1.317980149906361e-05</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.003601686097681522</v>
+        <v>2.373522147536278e-05</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0005743474466726184</v>
+        <v>3.018723418790614e-06</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.001607254846021533</v>
+        <v>2.743301138252718e-06</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.00077216507634148</v>
+        <v>6.495813522633398e-07</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.002595396246761084</v>
+        <v>5.619726834993344e-07</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.005441538989543915</v>
+        <v>9.939787560142577e-06</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.0009656156180426478</v>
+        <v>7.159293318181881e-07</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.0008097240934148431</v>
+        <v>1.377777607558528e-06</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.001060611335560679</v>
+        <v>5.940750270383433e-06</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.0002825030242092907</v>
+        <v>8.068333045230247e-06</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0002577426785137504</v>
+        <v>6.27239205641672e-06</v>
       </c>
       <c r="FE5" t="n">
-        <v>5.997080006636679e-05</v>
+        <v>2.231691269116709e-06</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.001719126477837563</v>
+        <v>2.154274170607096e-06</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.003545818850398064</v>
+        <v>8.247859568655258e-07</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.003075962420552969</v>
+        <v>2.466972091497155e-06</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.002641157479956746</v>
+        <v>2.363735120525234e-06</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.0009290640591643751</v>
+        <v>1.926616278069559e-05</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0009347702725790441</v>
+        <v>1.962078385986388e-05</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.003458499209955335</v>
+        <v>6.143775408418151e-06</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.001219911617226899</v>
+        <v>8.777979019214399e-06</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.002945523243397474</v>
+        <v>2.379526449658442e-05</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.001200046390295029</v>
+        <v>7.388741323666181e-06</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.002212201710790396</v>
+        <v>8.262277333415113e-06</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.004037672188133001</v>
+        <v>2.585355468909256e-05</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.001154221594333649</v>
+        <v>1.257940130017232e-05</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.001171775977127254</v>
+        <v>2.119620694429614e-05</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.004604727029800415</v>
+        <v>2.035107536357827e-05</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.004354632459580898</v>
+        <v>2.502725874364842e-05</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.004205953329801559</v>
+        <v>2.266864248667844e-05</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.003130886470898986</v>
+        <v>5.336974481906509e-06</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.001215712982229888</v>
+        <v>1.282037464989116e-05</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.002913249656558037</v>
+        <v>5.298093583405716e-06</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.002680477220565081</v>
+        <v>1.130208420363488e-05</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.002445312682539225</v>
+        <v>2.063237116090022e-05</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.0008845038828440011</v>
+        <v>3.834848030237481e-07</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.001583174685947597</v>
+        <v>2.818336497512064e-06</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.0007107731653377414</v>
+        <v>6.090435363148572e-06</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.001918255817145109</v>
+        <v>2.480648618075065e-06</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.003236121498048306</v>
+        <v>5.516479177458677e-06</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0003726881113834679</v>
+        <v>1.030314615491079e-05</v>
       </c>
     </row>
     <row r="6">
@@ -3849,571 +3849,571 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.000418070878367871</v>
+        <v>0.008337026461958885</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0008947618771344423</v>
+        <v>0.04195511713624001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0031327607575804</v>
+        <v>0.002908228663727641</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0007572203176096082</v>
+        <v>0.01748409122228622</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003111585974693298</v>
+        <v>0.005987092852592468</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000130314176203683</v>
+        <v>0.009918354451656342</v>
       </c>
       <c r="G7" t="n">
-        <v>4.63097239844501e-05</v>
+        <v>0.0001969195436686277</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0003944392665289342</v>
+        <v>0.00311191868968308</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001885989913716912</v>
+        <v>0.0007141405949369073</v>
       </c>
       <c r="J7" t="n">
-        <v>5.778345803264529e-05</v>
+        <v>0.0101968077942729</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004685830499511212</v>
+        <v>0.02542578428983688</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003260514233261347</v>
+        <v>0.001849665772169828</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001001388649456203</v>
+        <v>0.01669742725789547</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002390654757618904</v>
+        <v>0.01266420632600784</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0002851474855560809</v>
+        <v>0.01469221524894238</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0002987653424497694</v>
+        <v>0.001169866882264614</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0005374526372179389</v>
+        <v>0.001354412292130291</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002159016439691186</v>
+        <v>0.003525836393237114</v>
       </c>
       <c r="S7" t="n">
-        <v>9.6759686130099e-06</v>
+        <v>0.0004409290268085897</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0005375836044549942</v>
+        <v>0.003960245288908482</v>
       </c>
       <c r="U7" t="n">
-        <v>8.361326763406396e-05</v>
+        <v>0.0009175762534141541</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0007818705053068697</v>
+        <v>0.00635362695902586</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0002992497175000608</v>
+        <v>0.005703432019799948</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0002529761113692075</v>
+        <v>0.002733406610786915</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0004804386699106544</v>
+        <v>0.004095453303307295</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0001328263024333864</v>
+        <v>0.002539664739742875</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0001609411265235394</v>
+        <v>0.003093914361670613</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.000118881966045592</v>
+        <v>0.001172003801912069</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0001545560953672975</v>
+        <v>0.007001605350524187</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0002865286369342357</v>
+        <v>0.0008324551745317876</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0001955549232661724</v>
+        <v>0.002629113616421819</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0003200608771294355</v>
+        <v>0.004253712948411703</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0001777778670657426</v>
+        <v>0.001632692408747971</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0001842764031607658</v>
+        <v>0.0002554217353463173</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0005145694594830275</v>
+        <v>0.0007786264177411795</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0008278655586764216</v>
+        <v>0.001279835822060704</v>
       </c>
       <c r="AK7" t="n">
-        <v>5.737490573665127e-05</v>
+        <v>0.002681891899555922</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.000642618048004806</v>
+        <v>0.004342000465840101</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.000441986951045692</v>
+        <v>0.0001897157490020618</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0003511553513817489</v>
+        <v>0.001449968898668885</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0002426632854621857</v>
+        <v>0.003385679330676794</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0006315608625300229</v>
+        <v>0.006219206843525171</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4.05592581955716e-05</v>
+        <v>6.363110151141882e-05</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0003837055119220167</v>
+        <v>0.0004968221765011549</v>
       </c>
       <c r="AS7" t="n">
-        <v>4.791695391759276e-05</v>
+        <v>0.002430340275168419</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0006212778389453888</v>
+        <v>0.0006407788023352623</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0008240710594691336</v>
+        <v>0.02849677391350269</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.001969964243471622</v>
+        <v>0.0009781832341104746</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0002343042579013854</v>
+        <v>0.002842802321538329</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0007461017230525613</v>
+        <v>0.003286387072876096</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.001493523828685284</v>
+        <v>0.001109118806198239</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0004117166972719133</v>
+        <v>0.002116424264386296</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.000248656899202615</v>
+        <v>0.0007321385201066732</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0003087518562097102</v>
+        <v>0.002153741428628564</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0002159608411602676</v>
+        <v>0.003655500477179885</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.0002335193421458825</v>
+        <v>0.007366859819740057</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.0007270064088515937</v>
+        <v>0.004994453396648169</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0005316683673299849</v>
+        <v>0.002327155089005828</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0009011778747662902</v>
+        <v>0.01078564208000898</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.0004869910189881921</v>
+        <v>0.006786015350371599</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0003045960911549628</v>
+        <v>0.003155500628054142</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.0005003660917282104</v>
+        <v>0.003078626468777657</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0005919490940868855</v>
+        <v>0.0002332373260287568</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0001544381811982021</v>
+        <v>0.003273608861491084</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0002345505199627951</v>
+        <v>0.004965192172676325</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.000957092794124037</v>
+        <v>0.001197766978293657</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.0002815140469465405</v>
+        <v>0.004107169806957245</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0002772639854811132</v>
+        <v>0.00353256007656455</v>
       </c>
       <c r="BQ7" t="n">
-        <v>8.527967293048277e-05</v>
+        <v>0.003240769961848855</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0005240725004114211</v>
+        <v>0.003639145754277706</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.000528900942299515</v>
+        <v>2.142973244190216e-06</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0001786750799510628</v>
+        <v>0.003521052654832602</v>
       </c>
       <c r="BU7" t="n">
-        <v>7.948754500830546e-05</v>
+        <v>0.001014054869301617</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0003461415763013065</v>
+        <v>0.01424819324165583</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0005633810069411993</v>
+        <v>0.001954766688868403</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.000239469256484881</v>
+        <v>0.003801239421591163</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.001000095973722637</v>
+        <v>0.003711755620315671</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.0002588648349046707</v>
+        <v>0.00676571112126112</v>
       </c>
       <c r="CA7" t="n">
-        <v>3.570562694221735e-05</v>
+        <v>0.0005901379627175629</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.0001222622668137774</v>
+        <v>0.001462121726945043</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0004488904378376901</v>
+        <v>0.003204608336091042</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0001226603344548494</v>
+        <v>0.002602492924779654</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.0004489745188038796</v>
+        <v>0.006623005960136652</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0005899077514186502</v>
+        <v>0.002057523466646671</v>
       </c>
       <c r="CG7" t="n">
-        <v>3.063882468268275e-05</v>
+        <v>0.001747008645907044</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.000600048981141299</v>
+        <v>0.001284678932279348</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.0001959756191354245</v>
+        <v>0.002546904608607292</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.0001565368875162676</v>
+        <v>0.001457932638004422</v>
       </c>
       <c r="CK7" t="n">
-        <v>3.853917405649554e-06</v>
+        <v>0.0005373912281356752</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.0002259816246805713</v>
+        <v>0.001416896586306393</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0002080909325741231</v>
+        <v>0.002655861666426063</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.001022657030262053</v>
+        <v>0.0005644685588777065</v>
       </c>
       <c r="CO7" t="n">
-        <v>7.057108450680971e-05</v>
+        <v>0.00370717654004693</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0001082345406757668</v>
+        <v>0.005321491975337267</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0001117705614888109</v>
+        <v>0.002657521516084671</v>
       </c>
       <c r="CR7" t="n">
-        <v>7.237186218844727e-05</v>
+        <v>0.004416904877871275</v>
       </c>
       <c r="CS7" t="n">
-        <v>2.948857581941411e-05</v>
+        <v>0.002985172905027866</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.0003420307184569538</v>
+        <v>0.004412222653627396</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.0007063435623422265</v>
+        <v>0.0009985881624743342</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.0001484183449065313</v>
+        <v>0.0022374854888767</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.0004788885707966983</v>
+        <v>0.005036502610892057</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0005377860506996512</v>
+        <v>0.002138996031135321</v>
       </c>
       <c r="CY7" t="n">
-        <v>5.766987305833027e-05</v>
+        <v>0.003561146790161729</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0007536266930401325</v>
+        <v>0.001351513434201479</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.000247461604885757</v>
+        <v>0.003071777755394578</v>
       </c>
       <c r="DB7" t="n">
-        <v>7.730750076007098e-05</v>
+        <v>0.001785413245670497</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.0001211994022014551</v>
+        <v>0.0008156761759892106</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.0003360335831530392</v>
+        <v>0.0008568877819925547</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.000260295404586941</v>
+        <v>0.003925836645066738</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.0008973914664238691</v>
+        <v>0.004451735410839319</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.001044995500706136</v>
+        <v>0.001934888772666454</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.0004758091527037323</v>
+        <v>0.009194253943860531</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.0004466688551474363</v>
+        <v>0.005905090365558863</v>
       </c>
       <c r="DJ7" t="n">
-        <v>1.121649984270334e-05</v>
+        <v>0.002685434883460402</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.0005052924971096218</v>
+        <v>0.00183603388722986</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0006495073321275413</v>
+        <v>0.001504456275142729</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0004016440361738205</v>
+        <v>0.001078932778909802</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.0001186274603242055</v>
+        <v>0.005077037960290909</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.0003306422149762511</v>
+        <v>0.001314969966188073</v>
       </c>
       <c r="DP7" t="n">
-        <v>1.442002030671574e-06</v>
+        <v>0.00317502673715353</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0005044651334173977</v>
+        <v>0.001006952486932278</v>
       </c>
       <c r="DR7" t="n">
-        <v>2.338791819056496e-05</v>
+        <v>0.001109823700971901</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.000325885514030233</v>
+        <v>0.005516369361430407</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.000312187330564484</v>
+        <v>0.0002230510581284761</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.0004021613276563585</v>
+        <v>0.0003839951823465526</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0001336607238044962</v>
+        <v>0.002102497732266784</v>
       </c>
       <c r="DW7" t="n">
-        <v>8.222642645705491e-05</v>
+        <v>0.001798226381652057</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0003855100367218256</v>
+        <v>0.0003977154847234488</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0003165367234032601</v>
+        <v>0.005701211281120777</v>
       </c>
       <c r="DZ7" t="n">
-        <v>4.890868876827881e-05</v>
+        <v>0.001713453559204936</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0004161223187111318</v>
+        <v>0.005437529645860195</v>
       </c>
       <c r="EB7" t="n">
-        <v>3.017693234141916e-05</v>
+        <v>0.002312179189175367</v>
       </c>
       <c r="EC7" t="n">
-        <v>6.774360372219235e-06</v>
+        <v>0.0004386771470308304</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0002313178702024743</v>
+        <v>0.001168480957858264</v>
       </c>
       <c r="EE7" t="n">
-        <v>5.018732917960733e-05</v>
+        <v>0.001904727076180279</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.0002888505114242435</v>
+        <v>0.0001870058476924896</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.0002458379603922367</v>
+        <v>0.003355365712195635</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.0005850986344739795</v>
+        <v>0.0001409284450346604</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.0003044388722628355</v>
+        <v>3.400829154998064e-05</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0006388889742083848</v>
+        <v>0.0009538430022075772</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.0009973892010748386</v>
+        <v>0.001822634367272258</v>
       </c>
       <c r="EL7" t="n">
-        <v>2.782233059406281e-05</v>
+        <v>0.002122361212968826</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.0002452151093166322</v>
+        <v>0.0009825348388403654</v>
       </c>
       <c r="EN7" t="n">
-        <v>6.339458923321217e-05</v>
+        <v>0.0001998773077502847</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.000167129619512707</v>
+        <v>0.002746375044807792</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.0003720726526807994</v>
+        <v>0.005390276201069355</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0004552389145828784</v>
+        <v>0.001477609970606863</v>
       </c>
       <c r="ER7" t="n">
-        <v>6.264494732022285e-05</v>
+        <v>0.004446793347597122</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0003277723444625735</v>
+        <v>0.004679327365010977</v>
       </c>
       <c r="ET7" t="n">
-        <v>1.161939144367352e-05</v>
+        <v>0.01108686998486519</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.00026509421877563</v>
+        <v>0.00306465127505362</v>
       </c>
       <c r="EV7" t="n">
-        <v>2.282114655827172e-05</v>
+        <v>0.004217176232486963</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.000345875509083271</v>
+        <v>0.0007060314528644085</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.0002182138850912452</v>
+        <v>0.001760215498507023</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.0004745938640553504</v>
+        <v>0.005461455322802067</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.0005581987788900733</v>
+        <v>0.0003864428435917944</v>
       </c>
       <c r="FA7" t="n">
-        <v>8.825519034871832e-05</v>
+        <v>0.002765990793704987</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.000538551714271307</v>
+        <v>0.0009146103984676301</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.0001002051576506346</v>
+        <v>0.003579800948500633</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.0001012623470160179</v>
+        <v>0.002185341902077198</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.000162543379701674</v>
+        <v>0.001136746839620173</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0003617448091972619</v>
+        <v>0.00176969263702631</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.0002384433464612812</v>
+        <v>0.001371523132547736</v>
       </c>
       <c r="FH7" t="n">
-        <v>1.056250766851008e-05</v>
+        <v>0.002712148474529386</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.0001184092689072713</v>
+        <v>0.0008376361802220345</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.0002040947874775156</v>
+        <v>0.003823175095021725</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.0004683297011069953</v>
+        <v>0.00148016307502985</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.0002804649411700666</v>
+        <v>0.00231566745787859</v>
       </c>
       <c r="FM7" t="n">
-        <v>4.991305468138307e-05</v>
+        <v>0.0007877055904828012</v>
       </c>
       <c r="FN7" t="n">
-        <v>1.488474299549125e-05</v>
+        <v>0.00245783943682909</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.0003042987664230168</v>
+        <v>0.004324488807469606</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.0002067798632197082</v>
+        <v>0.001918842550367117</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.001047983998432755</v>
+        <v>0.004833509679883718</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.000174749264260754</v>
+        <v>0.001277289353311062</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.0003134072758257389</v>
+        <v>0.003731852862983942</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0003677571658045053</v>
+        <v>0.01114185154438019</v>
       </c>
       <c r="FU7" t="n">
-        <v>2.747181133599952e-05</v>
+        <v>0.003393179271370173</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0004082142258994281</v>
+        <v>0.0004788896767422557</v>
       </c>
       <c r="FW7" t="n">
-        <v>7.23152988939546e-05</v>
+        <v>0.0006825499003753066</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0002004625566769391</v>
+        <v>0.001968361204490066</v>
       </c>
       <c r="FY7" t="n">
-        <v>2.152211527572945e-05</v>
+        <v>0.003815420903265476</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.000272984616458416</v>
+        <v>0.003358272835612297</v>
       </c>
       <c r="GA7" t="n">
-        <v>5.968082405161113e-06</v>
+        <v>0.001407673000358045</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0001080873844330199</v>
+        <v>0.001625716802664101</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.0004557601059786975</v>
+        <v>0.004929407499730587</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0005145194008946419</v>
+        <v>0.004334128461778164</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0001659644476603717</v>
+        <v>0.008522408083081245</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.0003949611273128539</v>
+        <v>0.0002850256278179586</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0001783217448974028</v>
+        <v>0.001120923319831491</v>
       </c>
     </row>
     <row r="8">
@@ -4987,1140 +4987,1140 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.906961865141056e-07</v>
+        <v>0.0005928369937464595</v>
       </c>
       <c r="B9" t="n">
-        <v>8.383502972719725e-06</v>
+        <v>0.002426889492198825</v>
       </c>
       <c r="C9" t="n">
-        <v>8.824637006910052e-06</v>
+        <v>0.0004222870920784771</v>
       </c>
       <c r="D9" t="n">
-        <v>7.735631697869394e-06</v>
+        <v>0.000706691644154489</v>
       </c>
       <c r="E9" t="n">
-        <v>1.324017944170919e-06</v>
+        <v>0.001911196857690811</v>
       </c>
       <c r="F9" t="n">
-        <v>1.174204680864932e-05</v>
+        <v>0.0005675768479704857</v>
       </c>
       <c r="G9" t="n">
-        <v>4.121636720810784e-06</v>
+        <v>0.0002005794522119686</v>
       </c>
       <c r="H9" t="n">
-        <v>1.965306864804006e-06</v>
+        <v>3.863043457386084e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>1.908828016894404e-05</v>
+        <v>0.0001641650596866384</v>
       </c>
       <c r="J9" t="n">
-        <v>8.891131983546074e-06</v>
+        <v>0.000126018567243591</v>
       </c>
       <c r="K9" t="n">
-        <v>6.624514753639232e-06</v>
+        <v>0.001436837832443416</v>
       </c>
       <c r="L9" t="n">
-        <v>1.639985930523835e-05</v>
+        <v>0.0002662838087417185</v>
       </c>
       <c r="M9" t="n">
-        <v>6.524875061586499e-06</v>
+        <v>0.0008169747306965292</v>
       </c>
       <c r="N9" t="n">
-        <v>2.18555851461133e-06</v>
+        <v>0.001993207959458232</v>
       </c>
       <c r="O9" t="n">
-        <v>5.789432634628611e-06</v>
+        <v>0.0007512776646763086</v>
       </c>
       <c r="P9" t="n">
-        <v>4.986035037291003e-06</v>
+        <v>0.0001725453766994178</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.367805791436695e-06</v>
+        <v>0.0003128133248537779</v>
       </c>
       <c r="R9" t="n">
-        <v>1.520554724265821e-05</v>
+        <v>5.469885945785791e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>3.91247294828645e-06</v>
+        <v>4.531181184574962e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>2.006347870064928e-07</v>
+        <v>0.0006311146426014602</v>
       </c>
       <c r="U9" t="n">
-        <v>3.09101687889779e-06</v>
+        <v>1.555506514705485e-07</v>
       </c>
       <c r="V9" t="n">
-        <v>4.699046712630661e-06</v>
+        <v>0.0002270076947752386</v>
       </c>
       <c r="W9" t="n">
-        <v>3.928505975636654e-06</v>
+        <v>8.921424159780145e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>1.621208127744467e-07</v>
+        <v>0.0004048015689477324</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.036784725438338e-06</v>
+        <v>0.0002012817858485505</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.057392844624701e-07</v>
+        <v>9.54220668063499e-05</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.788689471344696e-06</v>
+        <v>9.39203891903162e-05</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.836984655616106e-07</v>
+        <v>2.824708644766361e-05</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.686942576081492e-06</v>
+        <v>0.000528322474565357</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.268011940032011e-06</v>
+        <v>0.0003425660252105445</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.35352410224732e-06</v>
+        <v>0.0003717084182426333</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.203100055136019e-06</v>
+        <v>8.2053491496481e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.983136826311238e-06</v>
+        <v>4.321358210290782e-05</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.544193300011102e-06</v>
+        <v>0.0005324189551174641</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.909666131425183e-06</v>
+        <v>0.0001437977334717289</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.31754609355994e-06</v>
+        <v>0.0001024220400722697</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.102927512874885e-06</v>
+        <v>0.0003569434629753232</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.982473918360483e-07</v>
+        <v>0.0005952176288701594</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.403095438945456e-06</v>
+        <v>0.0001751185045577586</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.250655714102322e-06</v>
+        <v>8.255569991888478e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.164370750459057e-07</v>
+        <v>0.0002353657182538882</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.213443465530872e-05</v>
+        <v>0.0003457814455032349</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6.789641702198423e-07</v>
+        <v>0.0001362803159281611</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.348286438471405e-06</v>
+        <v>0.0001019876726786606</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.798986431822414e-06</v>
+        <v>8.851222810335457e-05</v>
       </c>
       <c r="AT9" t="n">
-        <v>7.195093985501444e-06</v>
+        <v>0.0003413396771065891</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.287073246203363e-06</v>
+        <v>0.002249531447887421</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.473081192671089e-05</v>
+        <v>8.625615737400949e-05</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.206406745448476e-06</v>
+        <v>5.971541395410895e-05</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.834802894038148e-06</v>
+        <v>0.0001724819303490222</v>
       </c>
       <c r="AY9" t="n">
-        <v>9.304123523179442e-06</v>
+        <v>0.0004557110369205475</v>
       </c>
       <c r="AZ9" t="n">
-        <v>6.359192411764525e-06</v>
+        <v>0.0001580195676069707</v>
       </c>
       <c r="BA9" t="n">
-        <v>5.660648639604915e-06</v>
+        <v>0.0001527471613371745</v>
       </c>
       <c r="BB9" t="n">
-        <v>9.984032658394426e-06</v>
+        <v>0.0001495105243520811</v>
       </c>
       <c r="BC9" t="n">
-        <v>4.097852070117369e-06</v>
+        <v>0.0001328131183981895</v>
       </c>
       <c r="BD9" t="n">
-        <v>4.321914275351446e-06</v>
+        <v>0.0002415414055576548</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.408326054137433e-06</v>
+        <v>4.551317397272214e-05</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.208455043728463e-06</v>
+        <v>0.0003054765402339399</v>
       </c>
       <c r="BG9" t="n">
-        <v>5.698577751900302e-06</v>
+        <v>0.001281976932659745</v>
       </c>
       <c r="BH9" t="n">
-        <v>4.869473286817083e-06</v>
+        <v>0.0001662624854361638</v>
       </c>
       <c r="BI9" t="n">
-        <v>3.328402954139165e-06</v>
+        <v>0.0002902179548982531</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.20479317047284e-05</v>
+        <v>0.0003277729556430131</v>
       </c>
       <c r="BK9" t="n">
-        <v>4.068873295182129e-06</v>
+        <v>0.0001823071215767413</v>
       </c>
       <c r="BL9" t="n">
-        <v>4.234231710142922e-06</v>
+        <v>0.0003754000645130873</v>
       </c>
       <c r="BM9" t="n">
-        <v>4.556800831778673e-06</v>
+        <v>0.00058470678050071</v>
       </c>
       <c r="BN9" t="n">
-        <v>9.537762707623187e-06</v>
+        <v>5.799433893116657e-07</v>
       </c>
       <c r="BO9" t="n">
-        <v>2.051529008895159e-06</v>
+        <v>0.0004960802034474909</v>
       </c>
       <c r="BP9" t="n">
-        <v>2.037849526459468e-06</v>
+        <v>0.000627711764536798</v>
       </c>
       <c r="BQ9" t="n">
-        <v>3.065721102757379e-06</v>
+        <v>0.0001830641849664971</v>
       </c>
       <c r="BR9" t="n">
-        <v>4.178475137450732e-06</v>
+        <v>0.0002092650975100696</v>
       </c>
       <c r="BS9" t="n">
-        <v>7.612468380102655e-07</v>
+        <v>4.510275539360009e-05</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.624958713364322e-06</v>
+        <v>3.031392407137901e-05</v>
       </c>
       <c r="BU9" t="n">
-        <v>1.352150547972997e-06</v>
+        <v>0.0001700671418802813</v>
       </c>
       <c r="BV9" t="n">
-        <v>4.704892944573658e-06</v>
+        <v>0.001091136829927564</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.352805270471436e-06</v>
+        <v>0.0003835895622614771</v>
       </c>
       <c r="BX9" t="n">
-        <v>1.350095772068016e-06</v>
+        <v>2.67311988864094e-05</v>
       </c>
       <c r="BY9" t="n">
-        <v>4.129184162593447e-06</v>
+        <v>0.0005157852428965271</v>
       </c>
       <c r="BZ9" t="n">
-        <v>7.740840715086961e-07</v>
+        <v>0.0006685405387543142</v>
       </c>
       <c r="CA9" t="n">
-        <v>3.638801445049467e-06</v>
+        <v>0.0001081461232388392</v>
       </c>
       <c r="CB9" t="n">
-        <v>4.632393029169179e-06</v>
+        <v>0.0001315137778874487</v>
       </c>
       <c r="CC9" t="n">
-        <v>6.948020200070459e-06</v>
+        <v>5.777343176305294e-05</v>
       </c>
       <c r="CD9" t="n">
-        <v>2.433510871924227e-06</v>
+        <v>7.377384463325143e-05</v>
       </c>
       <c r="CE9" t="n">
-        <v>4.350850758783054e-06</v>
+        <v>0.0004576830542646348</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.022218611979042e-06</v>
+        <v>3.571091656340286e-05</v>
       </c>
       <c r="CG9" t="n">
-        <v>1.591479644957872e-06</v>
+        <v>0.0002371254522586241</v>
       </c>
       <c r="CH9" t="n">
-        <v>2.003572262765374e-06</v>
+        <v>0.0002118188131134957</v>
       </c>
       <c r="CI9" t="n">
-        <v>2.606737325550057e-06</v>
+        <v>0.0002067947934847325</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1.198270751956443e-06</v>
+        <v>0.0001155209756689146</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.539825689178542e-06</v>
+        <v>1.605634133738931e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>1.15574380288308e-06</v>
+        <v>6.85317900206428e-06</v>
       </c>
       <c r="CM9" t="n">
-        <v>4.171927230345318e-06</v>
+        <v>0.0004627335583791137</v>
       </c>
       <c r="CN9" t="n">
-        <v>1.358689587505069e-06</v>
+        <v>0.0002982202277053148</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.663608372837189e-06</v>
+        <v>0.0002999030402861536</v>
       </c>
       <c r="CP9" t="n">
-        <v>4.560865818348248e-06</v>
+        <v>1.020453055389225e-05</v>
       </c>
       <c r="CQ9" t="n">
-        <v>5.306595085130539e-06</v>
+        <v>0.0003690349985845387</v>
       </c>
       <c r="CR9" t="n">
-        <v>5.188016984902788e-07</v>
+        <v>0.0002239793102489784</v>
       </c>
       <c r="CS9" t="n">
-        <v>1.72159877820377e-06</v>
+        <v>1.503155181126203e-05</v>
       </c>
       <c r="CT9" t="n">
-        <v>4.655481006921036e-06</v>
+        <v>0.000191947357961908</v>
       </c>
       <c r="CU9" t="n">
-        <v>4.648872163670603e-06</v>
+        <v>2.114972085109912e-05</v>
       </c>
       <c r="CV9" t="n">
-        <v>3.254710691180662e-06</v>
+        <v>7.831552647985518e-05</v>
       </c>
       <c r="CW9" t="n">
-        <v>3.620505822254927e-06</v>
+        <v>0.0002710366970859468</v>
       </c>
       <c r="CX9" t="n">
-        <v>1.102662849916669e-06</v>
+        <v>1.402823818352772e-05</v>
       </c>
       <c r="CY9" t="n">
-        <v>9.764310107129859e-07</v>
+        <v>0.0003357913519721478</v>
       </c>
       <c r="CZ9" t="n">
-        <v>2.723723355302354e-06</v>
+        <v>0.0001853438443504274</v>
       </c>
       <c r="DA9" t="n">
-        <v>3.795599468503497e-06</v>
+        <v>0.0002977624535560608</v>
       </c>
       <c r="DB9" t="n">
-        <v>6.168908157633268e-07</v>
+        <v>0.0001052957159117796</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.375826059302199e-06</v>
+        <v>2.780305294436403e-06</v>
       </c>
       <c r="DD9" t="n">
-        <v>2.958467121061403e-06</v>
+        <v>6.144073267932981e-05</v>
       </c>
       <c r="DE9" t="n">
-        <v>2.28542739932891e-06</v>
+        <v>0.0001125173876062036</v>
       </c>
       <c r="DF9" t="n">
-        <v>1.220833291881718e-05</v>
+        <v>0.0007207500166259706</v>
       </c>
       <c r="DG9" t="n">
-        <v>1.79192593350308e-05</v>
+        <v>6.885649781906977e-05</v>
       </c>
       <c r="DH9" t="n">
-        <v>3.337386260682251e-06</v>
+        <v>0.0003897499991580844</v>
       </c>
       <c r="DI9" t="n">
-        <v>9.709960977488663e-06</v>
+        <v>0.0006943329353816807</v>
       </c>
       <c r="DJ9" t="n">
-        <v>1.038195659930352e-05</v>
+        <v>0.0001741745218168944</v>
       </c>
       <c r="DK9" t="n">
-        <v>1.243417955265613e-05</v>
+        <v>0.0006663427921012044</v>
       </c>
       <c r="DL9" t="n">
-        <v>2.955752506750287e-06</v>
+        <v>5.82558277528733e-05</v>
       </c>
       <c r="DM9" t="n">
-        <v>2.883301249312353e-06</v>
+        <v>0.0003367211320437491</v>
       </c>
       <c r="DN9" t="n">
-        <v>2.934807525889482e-06</v>
+        <v>0.0004982901155017316</v>
       </c>
       <c r="DO9" t="n">
-        <v>5.433951628219802e-06</v>
+        <v>0.0002873917983379215</v>
       </c>
       <c r="DP9" t="n">
-        <v>6.573832706635585e-06</v>
+        <v>3.235672920709476e-07</v>
       </c>
       <c r="DQ9" t="n">
-        <v>8.407996574533172e-07</v>
+        <v>0.0004097339406143874</v>
       </c>
       <c r="DR9" t="n">
-        <v>5.418727141659474e-06</v>
+        <v>4.247968172421679e-05</v>
       </c>
       <c r="DS9" t="n">
-        <v>1.263455260414048e-06</v>
+        <v>6.377600220730528e-05</v>
       </c>
       <c r="DT9" t="n">
-        <v>2.195124579884578e-06</v>
+        <v>3.228071000194177e-05</v>
       </c>
       <c r="DU9" t="n">
-        <v>3.682798023874057e-06</v>
+        <v>0.0002742154756560922</v>
       </c>
       <c r="DV9" t="n">
-        <v>9.478432048126706e-07</v>
+        <v>5.004416379961185e-06</v>
       </c>
       <c r="DW9" t="n">
-        <v>2.123668082276708e-06</v>
+        <v>2.670452522579581e-05</v>
       </c>
       <c r="DX9" t="n">
-        <v>1.688933593868569e-06</v>
+        <v>0.0002479137328919023</v>
       </c>
       <c r="DY9" t="n">
-        <v>5.742512030337821e-07</v>
+        <v>0.0003915549023076892</v>
       </c>
       <c r="DZ9" t="n">
-        <v>1.597182972545852e-07</v>
+        <v>0.000108575593912974</v>
       </c>
       <c r="EA9" t="n">
-        <v>2.576474798843265e-06</v>
+        <v>0.0005692500271834433</v>
       </c>
       <c r="EB9" t="n">
-        <v>3.751806843865779e-06</v>
+        <v>8.259275637101382e-05</v>
       </c>
       <c r="EC9" t="n">
-        <v>2.176300085920957e-06</v>
+        <v>6.885328730277251e-06</v>
       </c>
       <c r="ED9" t="n">
-        <v>8.831930244923569e-07</v>
+        <v>0.0001451725693186745</v>
       </c>
       <c r="EE9" t="n">
-        <v>8.191803999579861e-07</v>
+        <v>9.447801858186722e-05</v>
       </c>
       <c r="EF9" t="n">
-        <v>4.449946573004127e-06</v>
+        <v>0.0002865852147806436</v>
       </c>
       <c r="EG9" t="n">
-        <v>8.46692273626104e-06</v>
+        <v>1.479475395171903e-05</v>
       </c>
       <c r="EH9" t="n">
-        <v>2.640014827193227e-06</v>
+        <v>9.903343016048893e-05</v>
       </c>
       <c r="EI9" t="n">
-        <v>1.78137861439609e-06</v>
+        <v>0.0002014910714933649</v>
       </c>
       <c r="EJ9" t="n">
-        <v>1.527078779872681e-06</v>
+        <v>0.000200173759367317</v>
       </c>
       <c r="EK9" t="n">
-        <v>6.735453098372091e-06</v>
+        <v>5.997424887027591e-05</v>
       </c>
       <c r="EL9" t="n">
-        <v>2.170763536923914e-06</v>
+        <v>0.0001947888522408903</v>
       </c>
       <c r="EM9" t="n">
-        <v>1.910038463392993e-06</v>
+        <v>9.726863027026411e-06</v>
       </c>
       <c r="EN9" t="n">
-        <v>2.804562882374739e-06</v>
+        <v>4.049968265462667e-05</v>
       </c>
       <c r="EO9" t="n">
-        <v>2.288355972268619e-06</v>
+        <v>0.0004036282189190388</v>
       </c>
       <c r="EP9" t="n">
-        <v>5.603455065283924e-06</v>
+        <v>4.351154530013446e-06</v>
       </c>
       <c r="EQ9" t="n">
-        <v>2.858752168322098e-07</v>
+        <v>3.54099647665862e-05</v>
       </c>
       <c r="ER9" t="n">
-        <v>1.211498101838515e-07</v>
+        <v>0.0001391411497024819</v>
       </c>
       <c r="ES9" t="n">
-        <v>4.65620132672484e-06</v>
+        <v>5.9308124036761e-05</v>
       </c>
       <c r="ET9" t="n">
-        <v>3.585955710150301e-06</v>
+        <v>0.0006215922767296433</v>
       </c>
       <c r="EU9" t="n">
-        <v>1.817600150388898e-07</v>
+        <v>3.354440195835195e-05</v>
       </c>
       <c r="EV9" t="n">
-        <v>1.822393187467242e-07</v>
+        <v>0.0004046606773044914</v>
       </c>
       <c r="EW9" t="n">
-        <v>1.055814095707319e-06</v>
+        <v>0.0001287963677896187</v>
       </c>
       <c r="EX9" t="n">
-        <v>3.884536454279441e-06</v>
+        <v>6.592381396330893e-05</v>
       </c>
       <c r="EY9" t="n">
-        <v>3.524454541548039e-06</v>
+        <v>0.000241389891016297</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1.121469495046767e-06</v>
+        <v>0.0001266420003958046</v>
       </c>
       <c r="FA9" t="n">
-        <v>2.299281732121017e-06</v>
+        <v>0.000261914829025045</v>
       </c>
       <c r="FB9" t="n">
-        <v>1.685781057858549e-06</v>
+        <v>0.0002124338643625379</v>
       </c>
       <c r="FC9" t="n">
-        <v>3.811987198787392e-06</v>
+        <v>0.0002987226180266589</v>
       </c>
       <c r="FD9" t="n">
-        <v>1.485567366898977e-07</v>
+        <v>9.495938138570637e-05</v>
       </c>
       <c r="FE9" t="n">
-        <v>1.337502908427268e-06</v>
+        <v>1.224349216499832e-05</v>
       </c>
       <c r="FF9" t="n">
-        <v>3.22405048791552e-06</v>
+        <v>1.738113496685401e-05</v>
       </c>
       <c r="FG9" t="n">
-        <v>4.100761998415692e-06</v>
+        <v>0.0003129024116788059</v>
       </c>
       <c r="FH9" t="n">
-        <v>6.856465688542812e-07</v>
+        <v>0.0004739611758850515</v>
       </c>
       <c r="FI9" t="n">
-        <v>3.497509396765963e-06</v>
+        <v>0.0001939657231559977</v>
       </c>
       <c r="FJ9" t="n">
-        <v>4.835181698581437e-06</v>
+        <v>0.0001529532019048929</v>
       </c>
       <c r="FK9" t="n">
-        <v>1.695323817330063e-06</v>
+        <v>0.0001008928229566664</v>
       </c>
       <c r="FL9" t="n">
-        <v>6.686119604637497e-07</v>
+        <v>6.392660725396127e-05</v>
       </c>
       <c r="FM9" t="n">
-        <v>4.036420477859792e-07</v>
+        <v>5.883031917619519e-05</v>
       </c>
       <c r="FN9" t="n">
-        <v>1.416117925145954e-06</v>
+        <v>6.299900269368663e-05</v>
       </c>
       <c r="FO9" t="n">
-        <v>9.921747050611884e-07</v>
+        <v>0.0002869789605028927</v>
       </c>
       <c r="FP9" t="n">
-        <v>2.014662641158793e-06</v>
+        <v>0.0003723649133462459</v>
       </c>
       <c r="FQ9" t="n">
-        <v>1.403428200319468e-06</v>
+        <v>0.0003478361177258193</v>
       </c>
       <c r="FR9" t="n">
-        <v>8.095591965684434e-07</v>
+        <v>0.0006440583383664489</v>
       </c>
       <c r="FS9" t="n">
-        <v>8.544982847524807e-06</v>
+        <v>0.0004403206403367221</v>
       </c>
       <c r="FT9" t="n">
-        <v>3.613274088820617e-07</v>
+        <v>0.001073521212674677</v>
       </c>
       <c r="FU9" t="n">
-        <v>2.307609179297287e-07</v>
+        <v>0.0002537959371693432</v>
       </c>
       <c r="FV9" t="n">
-        <v>2.150639147657785e-06</v>
+        <v>2.870189200621098e-05</v>
       </c>
       <c r="FW9" t="n">
-        <v>1.169912820842001e-06</v>
+        <v>0.0002602071326691657</v>
       </c>
       <c r="FX9" t="n">
-        <v>4.29073179475381e-06</v>
+        <v>8.010807505343109e-05</v>
       </c>
       <c r="FY9" t="n">
-        <v>1.990909595406265e-06</v>
+        <v>6.900029256939888e-05</v>
       </c>
       <c r="FZ9" t="n">
-        <v>9.974382010113914e-06</v>
+        <v>0.0004929681890644133</v>
       </c>
       <c r="GA9" t="n">
-        <v>3.872615707223304e-06</v>
+        <v>0.0002792950836010277</v>
       </c>
       <c r="GB9" t="n">
-        <v>3.755682200790034e-06</v>
+        <v>0.0003089991223532706</v>
       </c>
       <c r="GC9" t="n">
-        <v>4.872028966929065e-07</v>
+        <v>0.0001516502525191754</v>
       </c>
       <c r="GD9" t="n">
-        <v>1.33082846787147e-06</v>
+        <v>0.0003285098064225167</v>
       </c>
       <c r="GE9" t="n">
-        <v>8.171947456503403e-07</v>
+        <v>0.0001798223966034129</v>
       </c>
       <c r="GF9" t="n">
-        <v>4.11636119679315e-06</v>
+        <v>0.0003822773287538439</v>
       </c>
       <c r="GG9" t="n">
-        <v>3.158650940804364e-07</v>
+        <v>9.592678543413058e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.376134918653406e-05</v>
+        <v>0.0002748302358668298</v>
       </c>
       <c r="B10" t="n">
-        <v>8.783405974099878e-06</v>
+        <v>0.002547397511079907</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001063070449163206</v>
+        <v>0.0001703799061942846</v>
       </c>
       <c r="D10" t="n">
-        <v>4.730659566121176e-05</v>
+        <v>0.001403443980962038</v>
       </c>
       <c r="E10" t="n">
-        <v>4.965461266692728e-05</v>
+        <v>0.0004054593737237155</v>
       </c>
       <c r="F10" t="n">
-        <v>7.119384008547058e-06</v>
+        <v>0.0004623816639650613</v>
       </c>
       <c r="G10" t="n">
-        <v>1.647179487918038e-05</v>
+        <v>0.0001313626707997173</v>
       </c>
       <c r="H10" t="n">
-        <v>2.754975866992027e-05</v>
+        <v>0.0001463842927478254</v>
       </c>
       <c r="I10" t="n">
-        <v>8.451630856143311e-05</v>
+        <v>0.0002467159065417945</v>
       </c>
       <c r="J10" t="n">
-        <v>7.128518518584315e-06</v>
+        <v>0.0004109618603251874</v>
       </c>
       <c r="K10" t="n">
-        <v>1.77596648427425e-05</v>
+        <v>0.001612748834304512</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001148001756519079</v>
+        <v>0.0001579678355483338</v>
       </c>
       <c r="M10" t="n">
-        <v>2.56622806773521e-05</v>
+        <v>0.001530939480289817</v>
       </c>
       <c r="N10" t="n">
-        <v>2.256115658383351e-05</v>
+        <v>0.0009870126377791166</v>
       </c>
       <c r="O10" t="n">
-        <v>6.081242190703051e-06</v>
+        <v>0.0008574908133596182</v>
       </c>
       <c r="P10" t="n">
-        <v>2.199710252170917e-05</v>
+        <v>0.0001553197944303975</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.001752651878633e-05</v>
+        <v>0.0001747326750773937</v>
       </c>
       <c r="R10" t="n">
-        <v>9.752337064128369e-05</v>
+        <v>5.738663458032534e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>4.055856152263004e-06</v>
+        <v>7.354423723882064e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>3.771449701162055e-05</v>
+        <v>0.0004177488735876977</v>
       </c>
       <c r="U10" t="n">
-        <v>3.917431968147866e-06</v>
+        <v>0.00012911346857436</v>
       </c>
       <c r="V10" t="n">
-        <v>2.632535324664786e-05</v>
+        <v>0.0003021442971657962</v>
       </c>
       <c r="W10" t="n">
-        <v>2.080124431813601e-05</v>
+        <v>0.0001031862193485722</v>
       </c>
       <c r="X10" t="n">
-        <v>6.494151421065908e-06</v>
+        <v>0.000340048864018172</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.382825303153368e-07</v>
+        <v>0.0002448626910336316</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.772778705344535e-05</v>
+        <v>4.172818080405705e-05</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.803962368285283e-05</v>
+        <v>3.198256308678538e-05</v>
       </c>
       <c r="AB10" t="n">
-        <v>4.810446625924669e-06</v>
+        <v>0.0003140224143862724</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.087054442905355e-06</v>
+        <v>0.0004043196386191994</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.832164217485115e-06</v>
+        <v>6.047466013114899e-05</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.770637209119741e-05</v>
+        <v>5.629303996101953e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.300658348365687e-06</v>
+        <v>0.0002838277141563594</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.483499883965123e-05</v>
+        <v>0.0001563641562825069</v>
       </c>
       <c r="AH10" t="n">
-        <v>5.150197466718964e-06</v>
+        <v>6.812818901380524e-05</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.556948493293021e-05</v>
+        <v>7.452961290255189e-05</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3.885258047375828e-05</v>
+        <v>5.230855094850995e-05</v>
       </c>
       <c r="AK10" t="n">
-        <v>6.069498795113759e-06</v>
+        <v>0.0001333984691882506</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.260035034851171e-05</v>
+        <v>0.0002179658331442624</v>
       </c>
       <c r="AM10" t="n">
-        <v>8.723493010620587e-06</v>
+        <v>9.249550203094259e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.146969589171931e-05</v>
+        <v>0.0001481987128499895</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.059055102814455e-05</v>
+        <v>0.0003214525931980461</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.820693771354854e-05</v>
+        <v>0.000324996595736593</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.538586613809457e-06</v>
+        <v>9.583916835254058e-05</v>
       </c>
       <c r="AR10" t="n">
-        <v>8.781286851444747e-06</v>
+        <v>0.0001920928771141917</v>
       </c>
       <c r="AS10" t="n">
-        <v>6.506473937406554e-07</v>
+        <v>9.861108264885843e-05</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.252155718451831e-05</v>
+        <v>0.0003032128734048456</v>
       </c>
       <c r="AU10" t="n">
-        <v>2.147323721146677e-05</v>
+        <v>0.002080778358504176</v>
       </c>
       <c r="AV10" t="n">
-        <v>7.723032467765734e-05</v>
+        <v>7.44086064514704e-05</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.424650665489025e-05</v>
+        <v>0.0002035284123849124</v>
       </c>
       <c r="AX10" t="n">
-        <v>7.269505658769049e-06</v>
+        <v>0.0004159290692768991</v>
       </c>
       <c r="AY10" t="n">
-        <v>5.464434798341244e-05</v>
+        <v>0.0003127572417724878</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.05737526610028e-05</v>
+        <v>5.132034129928797e-05</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.570576205267571e-05</v>
+        <v>4.471073771128431e-05</v>
       </c>
       <c r="BB10" t="n">
-        <v>3.161524364259094e-05</v>
+        <v>7.8221557487268e-05</v>
       </c>
       <c r="BC10" t="n">
-        <v>5.753972800448537e-07</v>
+        <v>6.833046063547954e-05</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.114946371671977e-05</v>
+        <v>0.0004209967155475169</v>
       </c>
       <c r="BE10" t="n">
-        <v>2.643940024427138e-05</v>
+        <v>0.0003943870542570949</v>
       </c>
       <c r="BF10" t="n">
-        <v>4.932037427352043e-06</v>
+        <v>0.0002906484878621995</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.09301272459561e-05</v>
+        <v>0.0008184651960618794</v>
       </c>
       <c r="BH10" t="n">
-        <v>2.442059121676721e-05</v>
+        <v>0.0006267077988013625</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.740683001116849e-05</v>
+        <v>0.0003035395930055529</v>
       </c>
       <c r="BJ10" t="n">
-        <v>9.744881936057936e-06</v>
+        <v>0.0001676971296546981</v>
       </c>
       <c r="BK10" t="n">
-        <v>3.214295702491654e-06</v>
+        <v>3.701401874423027e-05</v>
       </c>
       <c r="BL10" t="n">
-        <v>2.99013504445611e-06</v>
+        <v>0.0004923455417156219</v>
       </c>
       <c r="BM10" t="n">
-        <v>3.597338945837691e-06</v>
+        <v>0.0005900162504985929</v>
       </c>
       <c r="BN10" t="n">
-        <v>2.642459367052652e-05</v>
+        <v>0.000154618319356814</v>
       </c>
       <c r="BO10" t="n">
-        <v>3.849950644507771e-06</v>
+        <v>0.0001677844120422378</v>
       </c>
       <c r="BP10" t="n">
-        <v>1.210029222420417e-05</v>
+        <v>0.0004450304550118744</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1.134058834395546e-06</v>
+        <v>0.0002770553110167384</v>
       </c>
       <c r="BR10" t="n">
-        <v>1.326273377344478e-05</v>
+        <v>6.272280006669462e-05</v>
       </c>
       <c r="BS10" t="n">
-        <v>3.296602153568529e-05</v>
+        <v>0.0001001998607534915</v>
       </c>
       <c r="BT10" t="n">
-        <v>2.029712959483732e-05</v>
+        <v>0.0001672616053838283</v>
       </c>
       <c r="BU10" t="n">
-        <v>1.408038042427506e-05</v>
+        <v>0.0002476332592777908</v>
       </c>
       <c r="BV10" t="n">
-        <v>6.779155228286982e-06</v>
+        <v>0.0009770285105332732</v>
       </c>
       <c r="BW10" t="n">
-        <v>2.810629666782916e-05</v>
+        <v>8.820476068649441e-05</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.695935861789621e-05</v>
+        <v>0.0001465776877012104</v>
       </c>
       <c r="BY10" t="n">
-        <v>1.674783015914727e-05</v>
+        <v>0.0001006620732368901</v>
       </c>
       <c r="BZ10" t="n">
-        <v>4.526058546616696e-06</v>
+        <v>0.0006779050454497337</v>
       </c>
       <c r="CA10" t="n">
-        <v>3.373408844709047e-06</v>
+        <v>4.845811417908408e-05</v>
       </c>
       <c r="CB10" t="n">
-        <v>7.28911800251808e-06</v>
+        <v>8.206309576053172e-05</v>
       </c>
       <c r="CC10" t="n">
-        <v>3.767236194107682e-05</v>
+        <v>4.653922223951668e-05</v>
       </c>
       <c r="CD10" t="n">
-        <v>7.716511390754022e-06</v>
+        <v>0.0002090247726300731</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.46125230457983e-05</v>
+        <v>0.0004236219101585448</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.981163222808391e-05</v>
+        <v>0.0001028910919558257</v>
       </c>
       <c r="CG10" t="n">
-        <v>5.326963673724094e-06</v>
+        <v>0.0001213825889863074</v>
       </c>
       <c r="CH10" t="n">
-        <v>7.973823812790215e-06</v>
+        <v>9.977674926631153e-05</v>
       </c>
       <c r="CI10" t="n">
-        <v>8.63344939716626e-06</v>
+        <v>0.000164779179613106</v>
       </c>
       <c r="CJ10" t="n">
-        <v>1.688410520728212e-06</v>
+        <v>0.0001018253897200339</v>
       </c>
       <c r="CK10" t="n">
-        <v>5.352238531486364e-06</v>
+        <v>1.401911504217423e-05</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.214485382661223e-05</v>
+        <v>3.84966770070605e-05</v>
       </c>
       <c r="CM10" t="n">
-        <v>7.73326974012889e-06</v>
+        <v>0.0003267147403676063</v>
       </c>
       <c r="CN10" t="n">
-        <v>3.158876279485412e-05</v>
+        <v>0.0003472024400252849</v>
       </c>
       <c r="CO10" t="n">
-        <v>6.395971922756871e-06</v>
+        <v>0.0002116924442816526</v>
       </c>
       <c r="CP10" t="n">
-        <v>8.190390872186981e-06</v>
+        <v>0.0005713840946555138</v>
       </c>
       <c r="CQ10" t="n">
-        <v>7.588794687762856e-06</v>
+        <v>0.0003877149720210582</v>
       </c>
       <c r="CR10" t="n">
-        <v>9.944751582224853e-06</v>
+        <v>0.0003562625788617879</v>
       </c>
       <c r="CS10" t="n">
-        <v>4.477217316889437e-07</v>
+        <v>0.0001181555126095191</v>
       </c>
       <c r="CT10" t="n">
-        <v>3.827897671726532e-06</v>
+        <v>0.0004298301937524229</v>
       </c>
       <c r="CU10" t="n">
-        <v>3.129912875010632e-05</v>
+        <v>2.742112519626971e-05</v>
       </c>
       <c r="CV10" t="n">
-        <v>8.467061888950411e-06</v>
+        <v>0.0001989298471016809</v>
       </c>
       <c r="CW10" t="n">
-        <v>9.842354302236345e-06</v>
+        <v>0.0003103481139987707</v>
       </c>
       <c r="CX10" t="n">
-        <v>1.439923562429613e-05</v>
+        <v>0.000133356312289834</v>
       </c>
       <c r="CY10" t="n">
-        <v>6.052340722817462e-06</v>
+        <v>0.0002390425797784701</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1.714260361040942e-05</v>
+        <v>9.275949560105801e-05</v>
       </c>
       <c r="DA10" t="n">
-        <v>7.454999376932392e-06</v>
+        <v>0.0001657514658290893</v>
       </c>
       <c r="DB10" t="n">
-        <v>4.205188815831207e-06</v>
+        <v>8.799722127150744e-05</v>
       </c>
       <c r="DC10" t="n">
-        <v>6.213232154550496e-06</v>
+        <v>1.128836447605863e-05</v>
       </c>
       <c r="DD10" t="n">
-        <v>1.424578294972889e-05</v>
+        <v>1.293580135097727e-05</v>
       </c>
       <c r="DE10" t="n">
-        <v>1.917001645779237e-05</v>
+        <v>0.0001048077247105539</v>
       </c>
       <c r="DF10" t="n">
-        <v>3.05293251585681e-05</v>
+        <v>0.0003222417435608804</v>
       </c>
       <c r="DG10" t="n">
-        <v>3.792021743720397e-05</v>
+        <v>0.0001082506205420941</v>
       </c>
       <c r="DH10" t="n">
-        <v>3.180059866281226e-05</v>
+        <v>0.0002993476809933782</v>
       </c>
       <c r="DI10" t="n">
-        <v>1.978932596102823e-05</v>
+        <v>6.592812860617414e-05</v>
       </c>
       <c r="DJ10" t="n">
-        <v>2.450266038067639e-05</v>
+        <v>0.0001307359052589163</v>
       </c>
       <c r="DK10" t="n">
-        <v>3.128591197310016e-05</v>
+        <v>0.0001295421534450725</v>
       </c>
       <c r="DL10" t="n">
-        <v>1.212579445564188e-05</v>
+        <v>0.0001193568605231121</v>
       </c>
       <c r="DM10" t="n">
-        <v>2.10342877835501e-05</v>
+        <v>0.0001504308165749535</v>
       </c>
       <c r="DN10" t="n">
-        <v>8.519394214090426e-06</v>
+        <v>0.000413961912272498</v>
       </c>
       <c r="DO10" t="n">
-        <v>1.112309382733656e-05</v>
+        <v>0.0001392155099892989</v>
       </c>
       <c r="DP10" t="n">
-        <v>1.205734588438645e-05</v>
+        <v>0.0002148750791093335</v>
       </c>
       <c r="DQ10" t="n">
-        <v>1.02278972917702e-05</v>
+        <v>0.0001163788328994997</v>
       </c>
       <c r="DR10" t="n">
-        <v>3.974246737925569e-06</v>
+        <v>0.0001362231123493984</v>
       </c>
       <c r="DS10" t="n">
-        <v>1.344340034847846e-05</v>
+        <v>0.0002766206162050366</v>
       </c>
       <c r="DT10" t="n">
-        <v>1.198253130496596e-06</v>
+        <v>5.073300781077705e-05</v>
       </c>
       <c r="DU10" t="n">
-        <v>8.133683877531439e-06</v>
+        <v>3.269760782131925e-05</v>
       </c>
       <c r="DV10" t="n">
-        <v>1.973605139937717e-05</v>
+        <v>3.635764005593956e-05</v>
       </c>
       <c r="DW10" t="n">
-        <v>3.799165824602824e-06</v>
+        <v>0.0001342328905593604</v>
       </c>
       <c r="DX10" t="n">
-        <v>4.191161224298412e-06</v>
+        <v>2.006975591939408e-05</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.059134319802979e-05</v>
+        <v>0.0002661793259903789</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1.270155280508334e-06</v>
+        <v>0.0002023586857831106</v>
       </c>
       <c r="EA10" t="n">
-        <v>1.253174650628353e-05</v>
+        <v>0.0003639575734268874</v>
       </c>
       <c r="EB10" t="n">
-        <v>3.96626546717016e-06</v>
+        <v>0.0002406978019280359</v>
       </c>
       <c r="EC10" t="n">
-        <v>6.858171218482312e-06</v>
+        <v>3.774567085201852e-05</v>
       </c>
       <c r="ED10" t="n">
-        <v>2.008642513828818e-05</v>
+        <v>7.373571133939549e-05</v>
       </c>
       <c r="EE10" t="n">
-        <v>3.487164349280647e-06</v>
+        <v>3.742543776752427e-05</v>
       </c>
       <c r="EF10" t="n">
-        <v>9.29029738472309e-06</v>
+        <v>0.0001445650414098054</v>
       </c>
       <c r="EG10" t="n">
-        <v>1.576028444105759e-05</v>
+        <v>0.0001787693181540817</v>
       </c>
       <c r="EH10" t="n">
-        <v>1.331566818407737e-05</v>
+        <v>3.418056076043285e-05</v>
       </c>
       <c r="EI10" t="n">
-        <v>3.952452516386984e-06</v>
+        <v>0.0001908242265926674</v>
       </c>
       <c r="EJ10" t="n">
-        <v>7.573198672616854e-07</v>
+        <v>8.088034519460052e-05</v>
       </c>
       <c r="EK10" t="n">
-        <v>1.269260155822849e-05</v>
+        <v>0.0001165518478956074</v>
       </c>
       <c r="EL10" t="n">
-        <v>4.363408152130432e-06</v>
+        <v>0.0001081838709069416</v>
       </c>
       <c r="EM10" t="n">
-        <v>1.281704317079857e-05</v>
+        <v>9.483816393185407e-05</v>
       </c>
       <c r="EN10" t="n">
-        <v>7.950770850584377e-06</v>
+        <v>2.300156847923063e-05</v>
       </c>
       <c r="EO10" t="n">
-        <v>1.513986171630677e-05</v>
+        <v>0.0002000357198994607</v>
       </c>
       <c r="EP10" t="n">
-        <v>5.74816203879891e-06</v>
+        <v>0.0003076659049838781</v>
       </c>
       <c r="EQ10" t="n">
-        <v>5.522285391634796e-06</v>
+        <v>7.69775579101406e-05</v>
       </c>
       <c r="ER10" t="n">
-        <v>1.924070966197178e-05</v>
+        <v>0.0002100988349411637</v>
       </c>
       <c r="ES10" t="n">
-        <v>4.229504611430457e-06</v>
+        <v>0.0001469350245315582</v>
       </c>
       <c r="ET10" t="n">
-        <v>3.205982466170099e-06</v>
+        <v>0.0006649682181887329</v>
       </c>
       <c r="EU10" t="n">
-        <v>1.913874802994542e-05</v>
+        <v>0.0001769728260114789</v>
       </c>
       <c r="EV10" t="n">
-        <v>2.446520966259413e-06</v>
+        <v>0.0001440543419448659</v>
       </c>
       <c r="EW10" t="n">
-        <v>2.636853059811983e-05</v>
+        <v>1.585323116159998e-05</v>
       </c>
       <c r="EX10" t="n">
-        <v>4.394208644953324e-06</v>
+        <v>0.0001379839377477765</v>
       </c>
       <c r="EY10" t="n">
-        <v>1.151476317318156e-05</v>
+        <v>0.0003331944171804935</v>
       </c>
       <c r="EZ10" t="n">
-        <v>1.722886736388318e-05</v>
+        <v>3.579217445803806e-05</v>
       </c>
       <c r="FA10" t="n">
-        <v>3.826769898296334e-06</v>
+        <v>0.0001774880947778001</v>
       </c>
       <c r="FB10" t="n">
-        <v>6.00383646087721e-06</v>
+        <v>5.815028998767957e-06</v>
       </c>
       <c r="FC10" t="n">
-        <v>4.505523065745365e-06</v>
+        <v>0.0002210429811384529</v>
       </c>
       <c r="FD10" t="n">
-        <v>3.911517524102237e-06</v>
+        <v>0.0001037084439303726</v>
       </c>
       <c r="FE10" t="n">
-        <v>9.181057976093143e-06</v>
+        <v>1.438763320038561e-05</v>
       </c>
       <c r="FF10" t="n">
-        <v>1.992338729905896e-05</v>
+        <v>3.949560777982697e-05</v>
       </c>
       <c r="FG10" t="n">
-        <v>4.125311079405947e-07</v>
+        <v>8.7342421466019e-05</v>
       </c>
       <c r="FH10" t="n">
-        <v>4.687874024966732e-06</v>
+        <v>0.0001138985317084007</v>
       </c>
       <c r="FI10" t="n">
-        <v>1.08597423604806e-05</v>
+        <v>1.992441502807196e-05</v>
       </c>
       <c r="FJ10" t="n">
-        <v>3.29896283801645e-06</v>
+        <v>0.0002446250291541219</v>
       </c>
       <c r="FK10" t="n">
-        <v>1.074227657227311e-05</v>
+        <v>0.0001446434325771406</v>
       </c>
       <c r="FL10" t="n">
-        <v>1.391318710375344e-05</v>
+        <v>0.0001689123891992494</v>
       </c>
       <c r="FM10" t="n">
-        <v>7.396843102469575e-06</v>
+        <v>4.797590372618288e-05</v>
       </c>
       <c r="FN10" t="n">
-        <v>6.439668595703552e-06</v>
+        <v>7.642380660399795e-05</v>
       </c>
       <c r="FO10" t="n">
-        <v>1.634717773413286e-05</v>
+        <v>0.0001779026933945715</v>
       </c>
       <c r="FP10" t="n">
-        <v>7.42400879971683e-06</v>
+        <v>2.406279236311093e-06</v>
       </c>
       <c r="FQ10" t="n">
-        <v>2.326540925423615e-05</v>
+        <v>0.0001677592081250623</v>
       </c>
       <c r="FR10" t="n">
-        <v>8.912776138458867e-06</v>
+        <v>3.1459941965295e-05</v>
       </c>
       <c r="FS10" t="n">
-        <v>8.535635060979985e-06</v>
+        <v>0.0004439508193172514</v>
       </c>
       <c r="FT10" t="n">
-        <v>1.538197284389753e-05</v>
+        <v>0.0003449786454439163</v>
       </c>
       <c r="FU10" t="n">
-        <v>7.704852578171995e-06</v>
+        <v>2.189039150835015e-05</v>
       </c>
       <c r="FV10" t="n">
-        <v>1.112755671783816e-05</v>
+        <v>8.636793063487858e-05</v>
       </c>
       <c r="FW10" t="n">
-        <v>2.456599759170786e-07</v>
+        <v>7.758807623758912e-05</v>
       </c>
       <c r="FX10" t="n">
-        <v>9.473889804212376e-06</v>
+        <v>0.0001890100538730621</v>
       </c>
       <c r="FY10" t="n">
-        <v>1.025370147544891e-05</v>
+        <v>0.000284538371488452</v>
       </c>
       <c r="FZ10" t="n">
-        <v>1.702405097603332e-05</v>
+        <v>0.0002635422279126942</v>
       </c>
       <c r="GA10" t="n">
-        <v>9.734535524330568e-07</v>
+        <v>1.717678787827026e-05</v>
       </c>
       <c r="GB10" t="n">
-        <v>2.036313526332378e-05</v>
+        <v>0.0001228266628459096</v>
       </c>
       <c r="GC10" t="n">
-        <v>1.024197263177484e-05</v>
+        <v>0.0001622803829377517</v>
       </c>
       <c r="GD10" t="n">
-        <v>2.571799632278271e-05</v>
+        <v>0.0002987290499731898</v>
       </c>
       <c r="GE10" t="n">
-        <v>1.447474642191082e-05</v>
+        <v>0.0004316896083764732</v>
       </c>
       <c r="GF10" t="n">
-        <v>2.94133151328424e-05</v>
+        <v>1.145674832514487e-05</v>
       </c>
       <c r="GG10" t="n">
-        <v>6.604683449040749e-07</v>
+        <v>7.54209904698655e-05</v>
       </c>
     </row>
     <row r="11">
@@ -6694,2278 +6694,2278 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.567981465835146e-09</v>
+        <v>2.238724206016229e-10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.976665302081074e-09</v>
+        <v>4.064785452673192e-10</v>
       </c>
       <c r="C12" t="n">
-        <v>2.2802345256423e-07</v>
+        <v>1.019161491311316e-10</v>
       </c>
       <c r="D12" t="n">
-        <v>4.477805148894731e-08</v>
+        <v>1.441834207582815e-09</v>
       </c>
       <c r="E12" t="n">
-        <v>1.351319411924123e-07</v>
+        <v>2.359160089504542e-11</v>
       </c>
       <c r="F12" t="n">
-        <v>6.498769522522707e-08</v>
+        <v>1.497089258117867e-11</v>
       </c>
       <c r="G12" t="n">
-        <v>1.154473672215772e-08</v>
+        <v>3.496294573301917e-11</v>
       </c>
       <c r="H12" t="n">
-        <v>1.122193005187455e-09</v>
+        <v>1.016590422953101e-10</v>
       </c>
       <c r="I12" t="n">
-        <v>1.063920933574991e-07</v>
+        <v>2.203057181127122e-11</v>
       </c>
       <c r="J12" t="n">
-        <v>3.415590654753942e-08</v>
+        <v>3.693582939501283e-10</v>
       </c>
       <c r="K12" t="n">
-        <v>3.323201269722631e-09</v>
+        <v>2.646478314272116e-10</v>
       </c>
       <c r="L12" t="n">
-        <v>2.333623569938936e-07</v>
+        <v>1.118036496716712e-10</v>
       </c>
       <c r="M12" t="n">
-        <v>5.513272327561936e-08</v>
+        <v>6.487541615030068e-10</v>
       </c>
       <c r="N12" t="n">
-        <v>8.286917108080161e-08</v>
+        <v>8.176620491795461e-11</v>
       </c>
       <c r="O12" t="n">
-        <v>2.311084124073659e-08</v>
+        <v>4.328088998306612e-10</v>
       </c>
       <c r="P12" t="n">
-        <v>3.976420259732549e-08</v>
+        <v>2.015022315671189e-10</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.944458816183214e-08</v>
+        <v>4.871831826847028e-10</v>
       </c>
       <c r="R12" t="n">
-        <v>1.374300637735359e-07</v>
+        <v>4.992349242338712e-11</v>
       </c>
       <c r="S12" t="n">
-        <v>1.052425346870223e-08</v>
+        <v>5.425655411062102e-11</v>
       </c>
       <c r="T12" t="n">
-        <v>4.324340352468425e-08</v>
+        <v>3.861958322581849e-11</v>
       </c>
       <c r="U12" t="n">
-        <v>3.83985536700493e-08</v>
+        <v>1.529500553987262e-10</v>
       </c>
       <c r="V12" t="n">
-        <v>3.849489971230469e-08</v>
+        <v>1.731405470384306e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>3.037797569049872e-08</v>
+        <v>3.054681507741464e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>4.864911140600725e-09</v>
+        <v>2.421347670977791e-11</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.982373104032376e-08</v>
+        <v>5.216440057687066e-10</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.515983865691851e-08</v>
+        <v>7.008049696111129e-11</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.63705484115917e-08</v>
+        <v>2.251605152325808e-10</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.152164846336291e-08</v>
+        <v>1.129977639235946e-10</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.871494662163968e-08</v>
+        <v>1.229192581053695e-10</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.379874158326857e-08</v>
+        <v>4.756325541754869e-12</v>
       </c>
       <c r="AE12" t="n">
-        <v>9.534248057718742e-09</v>
+        <v>2.528587617067757e-10</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.905769929701819e-08</v>
+        <v>2.449620506439487e-10</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.91351867076628e-08</v>
+        <v>3.113678481714288e-10</v>
       </c>
       <c r="AH12" t="n">
-        <v>9.328084082937949e-09</v>
+        <v>1.112255218482794e-10</v>
       </c>
       <c r="AI12" t="n">
-        <v>6.742583025243221e-08</v>
+        <v>1.64218499909552e-10</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4.958659971521229e-08</v>
+        <v>7.923279393695637e-11</v>
       </c>
       <c r="AK12" t="n">
-        <v>6.10161032810197e-09</v>
+        <v>5.750042109120557e-11</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.058587966757841e-09</v>
+        <v>1.63062771618705e-10</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.277548188407309e-08</v>
+        <v>1.202702798464017e-10</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.88416429125482e-08</v>
+        <v>9.675141937615095e-11</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.697808293954495e-08</v>
+        <v>2.305072799302366e-10</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.722070036043078e-08</v>
+        <v>1.913727926128317e-10</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.245048147386797e-09</v>
+        <v>1.972215168954961e-10</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.949932304512458e-08</v>
+        <v>1.439199037722716e-10</v>
       </c>
       <c r="AS12" t="n">
-        <v>9.444280024695217e-09</v>
+        <v>1.510377517499606e-10</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.57806442252695e-08</v>
+        <v>1.624360368435163e-13</v>
       </c>
       <c r="AU12" t="n">
-        <v>5.71988856279404e-09</v>
+        <v>9.391239869094292e-11</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.182527995524651e-07</v>
+        <v>7.854413647256919e-11</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.561138951444718e-08</v>
+        <v>7.198976970101967e-10</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.147065642470579e-08</v>
+        <v>1.193430423929165e-11</v>
       </c>
       <c r="AY12" t="n">
-        <v>6.839778166067845e-08</v>
+        <v>7.129482421097677e-11</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2.495861295415125e-08</v>
+        <v>1.736987498279774e-10</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.970434730466877e-09</v>
+        <v>1.489469103610475e-10</v>
       </c>
       <c r="BB12" t="n">
-        <v>4.918847551493855e-09</v>
+        <v>3.67697261527411e-10</v>
       </c>
       <c r="BC12" t="n">
-        <v>1.134908789168776e-08</v>
+        <v>1.808582728024533e-10</v>
       </c>
       <c r="BD12" t="n">
-        <v>5.763737043196215e-09</v>
+        <v>6.493892923398192e-11</v>
       </c>
       <c r="BE12" t="n">
-        <v>5.154781845817524e-08</v>
+        <v>5.368290534324416e-11</v>
       </c>
       <c r="BF12" t="n">
-        <v>2.605523263810028e-08</v>
+        <v>8.957391772757006e-11</v>
       </c>
       <c r="BG12" t="n">
-        <v>9.514501186913549e-08</v>
+        <v>5.785472101393907e-11</v>
       </c>
       <c r="BH12" t="n">
-        <v>4.818168974907167e-08</v>
+        <v>7.848174887747916e-11</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.291301643391307e-08</v>
+        <v>1.322219139732184e-10</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1.854673925549832e-08</v>
+        <v>6.117622519674626e-10</v>
       </c>
       <c r="BK12" t="n">
-        <v>5.341779996115292e-08</v>
+        <v>1.371595545474058e-11</v>
       </c>
       <c r="BL12" t="n">
-        <v>2.480778071856093e-08</v>
+        <v>4.502867523292764e-11</v>
       </c>
       <c r="BM12" t="n">
-        <v>4.288167154697931e-09</v>
+        <v>1.494273177415906e-10</v>
       </c>
       <c r="BN12" t="n">
-        <v>7.271471247349837e-08</v>
+        <v>1.160540205602523e-10</v>
       </c>
       <c r="BO12" t="n">
-        <v>1.378641290017413e-08</v>
+        <v>1.269455651708995e-10</v>
       </c>
       <c r="BP12" t="n">
-        <v>4.380893869893043e-08</v>
+        <v>1.98562971620575e-10</v>
       </c>
       <c r="BQ12" t="n">
-        <v>6.801700536129829e-09</v>
+        <v>2.114009245435255e-10</v>
       </c>
       <c r="BR12" t="n">
-        <v>2.625722927973584e-08</v>
+        <v>2.013994873650837e-11</v>
       </c>
       <c r="BS12" t="n">
-        <v>1.315540831825501e-08</v>
+        <v>2.540762392144735e-11</v>
       </c>
       <c r="BT12" t="n">
-        <v>1.3344367832957e-09</v>
+        <v>6.686087794527396e-11</v>
       </c>
       <c r="BU12" t="n">
-        <v>5.106546296929082e-10</v>
+        <v>3.134329601417463e-12</v>
       </c>
       <c r="BV12" t="n">
-        <v>7.491909315149314e-09</v>
+        <v>7.164693144323664e-11</v>
       </c>
       <c r="BW12" t="n">
-        <v>6.256175311136758e-08</v>
+        <v>8.757133213022072e-11</v>
       </c>
       <c r="BX12" t="n">
-        <v>8.183237198977622e-09</v>
+        <v>2.791622211173461e-10</v>
       </c>
       <c r="BY12" t="n">
-        <v>1.702171559259114e-08</v>
+        <v>1.712552044619287e-10</v>
       </c>
       <c r="BZ12" t="n">
-        <v>4.432090250361398e-08</v>
+        <v>1.861306664352469e-10</v>
       </c>
       <c r="CA12" t="n">
-        <v>1.073789768213373e-08</v>
+        <v>2.309528956967455e-10</v>
       </c>
       <c r="CB12" t="n">
-        <v>2.405841037500522e-08</v>
+        <v>1.371311536546571e-10</v>
       </c>
       <c r="CC12" t="n">
-        <v>8.805885798324198e-09</v>
+        <v>2.469724424969399e-10</v>
       </c>
       <c r="CD12" t="n">
-        <v>2.582546798635121e-08</v>
+        <v>2.625549777590663e-11</v>
       </c>
       <c r="CE12" t="n">
-        <v>2.643017715797669e-08</v>
+        <v>7.269754243033333e-11</v>
       </c>
       <c r="CF12" t="n">
-        <v>3.75079736159023e-08</v>
+        <v>1.57546115042706e-10</v>
       </c>
       <c r="CG12" t="n">
-        <v>5.852841322706581e-09</v>
+        <v>1.452200443230467e-10</v>
       </c>
       <c r="CH12" t="n">
-        <v>3.481725130427549e-08</v>
+        <v>7.866551854363024e-11</v>
       </c>
       <c r="CI12" t="n">
-        <v>2.503279716847828e-08</v>
+        <v>1.686658451793832e-11</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1.443764130470981e-08</v>
+        <v>8.800968287481226e-11</v>
       </c>
       <c r="CK12" t="n">
-        <v>7.903102172690524e-09</v>
+        <v>6.457055029551739e-11</v>
       </c>
       <c r="CL12" t="n">
-        <v>1.189290710357227e-08</v>
+        <v>1.853548980967901e-10</v>
       </c>
       <c r="CM12" t="n">
-        <v>3.57920733051742e-08</v>
+        <v>1.331854071473515e-11</v>
       </c>
       <c r="CN12" t="n">
-        <v>5.046305062705869e-08</v>
+        <v>3.159635331151378e-10</v>
       </c>
       <c r="CO12" t="n">
-        <v>6.312920852735715e-09</v>
+        <v>5.934079616576327e-11</v>
       </c>
       <c r="CP12" t="n">
-        <v>1.78003123352255e-08</v>
+        <v>3.435401685347728e-10</v>
       </c>
       <c r="CQ12" t="n">
-        <v>4.291943511702812e-08</v>
+        <v>1.73475289688696e-10</v>
       </c>
       <c r="CR12" t="n">
-        <v>2.457436032443638e-08</v>
+        <v>2.851165414874401e-10</v>
       </c>
       <c r="CS12" t="n">
-        <v>1.741249988640448e-08</v>
+        <v>1.81344703142905e-10</v>
       </c>
       <c r="CT12" t="n">
-        <v>2.688658895522167e-08</v>
+        <v>5.142962167248299e-10</v>
       </c>
       <c r="CU12" t="n">
-        <v>3.688813876578934e-08</v>
+        <v>1.122539474568418e-11</v>
       </c>
       <c r="CV12" t="n">
-        <v>2.96623330342527e-08</v>
+        <v>3.385300373359712e-11</v>
       </c>
       <c r="CW12" t="n">
-        <v>2.646734920119798e-08</v>
+        <v>8.184809774380852e-11</v>
       </c>
       <c r="CX12" t="n">
-        <v>4.043985057933241e-08</v>
+        <v>9.000437894979285e-11</v>
       </c>
       <c r="CY12" t="n">
-        <v>4.316348167776596e-09</v>
+        <v>2.556513056806153e-10</v>
       </c>
       <c r="CZ12" t="n">
-        <v>4.106372841761186e-08</v>
+        <v>8.569791404289262e-11</v>
       </c>
       <c r="DA12" t="n">
-        <v>2.783769836867123e-08</v>
+        <v>4.596926311828398e-11</v>
       </c>
       <c r="DB12" t="n">
-        <v>7.055846129588872e-09</v>
+        <v>8.135903062367333e-11</v>
       </c>
       <c r="DC12" t="n">
-        <v>7.826826409207399e-10</v>
+        <v>7.610761326715121e-11</v>
       </c>
       <c r="DD12" t="n">
-        <v>2.465277582075487e-08</v>
+        <v>1.384275333249363e-10</v>
       </c>
       <c r="DE12" t="n">
-        <v>9.200715744839272e-09</v>
+        <v>7.995514667014092e-11</v>
       </c>
       <c r="DF12" t="n">
-        <v>1.165969578664772e-07</v>
+        <v>2.897481421459958e-10</v>
       </c>
       <c r="DG12" t="n">
-        <v>7.0839064392203e-08</v>
+        <v>5.576450412547729e-10</v>
       </c>
       <c r="DH12" t="n">
-        <v>2.438344104405132e-08</v>
+        <v>1.209518929456976e-09</v>
       </c>
       <c r="DI12" t="n">
-        <v>1.204968302914722e-08</v>
+        <v>4.526544972183189e-10</v>
       </c>
       <c r="DJ12" t="n">
-        <v>4.51901449594061e-09</v>
+        <v>4.620236832009184e-11</v>
       </c>
       <c r="DK12" t="n">
-        <v>1.923274339787895e-08</v>
+        <v>9.596962807778553e-11</v>
       </c>
       <c r="DL12" t="n">
-        <v>2.81797607470935e-08</v>
+        <v>7.391549039503786e-10</v>
       </c>
       <c r="DM12" t="n">
-        <v>2.410938471086865e-08</v>
+        <v>6.795578683105319e-11</v>
       </c>
       <c r="DN12" t="n">
-        <v>1.297037321990047e-08</v>
+        <v>5.808499514703414e-11</v>
       </c>
       <c r="DO12" t="n">
-        <v>1.039514785361462e-08</v>
+        <v>4.504610573441425e-11</v>
       </c>
       <c r="DP12" t="n">
-        <v>1.790180670369068e-09</v>
+        <v>2.338699511827969e-10</v>
       </c>
       <c r="DQ12" t="n">
-        <v>1.825002904354278e-08</v>
+        <v>1.280833425432171e-11</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.644502489739352e-08</v>
+        <v>1.948538969065439e-10</v>
       </c>
       <c r="DS12" t="n">
-        <v>9.233731113056365e-09</v>
+        <v>1.71001934834436e-10</v>
       </c>
       <c r="DT12" t="n">
-        <v>5.829183358230239e-09</v>
+        <v>3.349696908738764e-11</v>
       </c>
       <c r="DU12" t="n">
-        <v>4.08904554660694e-08</v>
+        <v>5.801633479185497e-11</v>
       </c>
       <c r="DV12" t="n">
-        <v>4.757816363110123e-09</v>
+        <v>3.930044900624097e-10</v>
       </c>
       <c r="DW12" t="n">
-        <v>8.61374527261205e-09</v>
+        <v>1.089625820127615e-10</v>
       </c>
       <c r="DX12" t="n">
-        <v>3.644454338314063e-08</v>
+        <v>1.155497503235736e-10</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.190931264716255e-08</v>
+        <v>2.468289739265828e-10</v>
       </c>
       <c r="DZ12" t="n">
-        <v>7.006627722461189e-09</v>
+        <v>6.432517712928743e-11</v>
       </c>
       <c r="EA12" t="n">
-        <v>3.067667719847122e-08</v>
+        <v>2.000291182691072e-10</v>
       </c>
       <c r="EB12" t="n">
-        <v>8.360608205748576e-09</v>
+        <v>3.566660577991598e-10</v>
       </c>
       <c r="EC12" t="n">
-        <v>2.313762514916107e-10</v>
+        <v>7.854650263539042e-11</v>
       </c>
       <c r="ED12" t="n">
-        <v>5.010166725938348e-10</v>
+        <v>6.313695399828845e-11</v>
       </c>
       <c r="EE12" t="n">
-        <v>9.126862821062787e-09</v>
+        <v>1.630638332694723e-11</v>
       </c>
       <c r="EF12" t="n">
-        <v>4.202328085511908e-08</v>
+        <v>1.901305501927908e-12</v>
       </c>
       <c r="EG12" t="n">
-        <v>3.186016783729428e-09</v>
+        <v>4.601710679175142e-11</v>
       </c>
       <c r="EH12" t="n">
-        <v>5.438222672182746e-08</v>
+        <v>8.582990221328579e-12</v>
       </c>
       <c r="EI12" t="n">
-        <v>9.223727559515282e-09</v>
+        <v>1.54232238092078e-10</v>
       </c>
       <c r="EJ12" t="n">
-        <v>4.190692948213837e-08</v>
+        <v>9.941372725030817e-11</v>
       </c>
       <c r="EK12" t="n">
-        <v>7.055015061041559e-08</v>
+        <v>6.478276248778059e-11</v>
       </c>
       <c r="EL12" t="n">
-        <v>2.791231024090735e-09</v>
+        <v>1.2550940842182e-10</v>
       </c>
       <c r="EM12" t="n">
-        <v>7.890045949920932e-09</v>
+        <v>1.753716616370582e-11</v>
       </c>
       <c r="EN12" t="n">
-        <v>4.635875239245024e-09</v>
+        <v>1.083606676610671e-10</v>
       </c>
       <c r="EO12" t="n">
-        <v>7.494385556583438e-09</v>
+        <v>3.199207565529605e-11</v>
       </c>
       <c r="EP12" t="n">
-        <v>3.115176383516882e-08</v>
+        <v>1.347553735264739e-10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>3.126950787191163e-08</v>
+        <v>1.687335687838853e-10</v>
       </c>
       <c r="ER12" t="n">
-        <v>1.488602308086229e-08</v>
+        <v>4.319289717558128e-12</v>
       </c>
       <c r="ES12" t="n">
-        <v>1.157976825538753e-08</v>
+        <v>3.965485995127693e-10</v>
       </c>
       <c r="ET12" t="n">
-        <v>6.703782418071569e-09</v>
+        <v>5.028782251725872e-11</v>
       </c>
       <c r="EU12" t="n">
-        <v>8.921698935182576e-09</v>
+        <v>9.230324837794512e-12</v>
       </c>
       <c r="EV12" t="n">
-        <v>1.594901632984147e-08</v>
+        <v>3.834980388806031e-10</v>
       </c>
       <c r="EW12" t="n">
-        <v>1.33840876159752e-08</v>
+        <v>8.95196416994537e-11</v>
       </c>
       <c r="EX12" t="n">
-        <v>3.333112275072381e-08</v>
+        <v>1.58780766312816e-11</v>
       </c>
       <c r="EY12" t="n">
-        <v>2.486792993749987e-08</v>
+        <v>6.294596788247731e-11</v>
       </c>
       <c r="EZ12" t="n">
-        <v>3.744212051515206e-08</v>
+        <v>1.293141843605738e-10</v>
       </c>
       <c r="FA12" t="n">
-        <v>1.23000072349555e-08</v>
+        <v>2.060972226214375e-10</v>
       </c>
       <c r="FB12" t="n">
-        <v>2.730579495846541e-08</v>
+        <v>5.565567451348841e-11</v>
       </c>
       <c r="FC12" t="n">
-        <v>2.229365136940942e-08</v>
+        <v>2.200677834407472e-11</v>
       </c>
       <c r="FD12" t="n">
-        <v>1.315369146936973e-08</v>
+        <v>9.776033454977906e-11</v>
       </c>
       <c r="FE12" t="n">
-        <v>7.551847147624358e-09</v>
+        <v>6.38051417256591e-11</v>
       </c>
       <c r="FF12" t="n">
-        <v>2.359759143644169e-08</v>
+        <v>1.841106156419414e-10</v>
       </c>
       <c r="FG12" t="n">
-        <v>2.379306707211981e-08</v>
+        <v>6.99423366445906e-11</v>
       </c>
       <c r="FH12" t="n">
-        <v>1.356389844886507e-08</v>
+        <v>1.691248391333389e-10</v>
       </c>
       <c r="FI12" t="n">
-        <v>1.502155555499485e-08</v>
+        <v>3.527108050072059e-10</v>
       </c>
       <c r="FJ12" t="n">
-        <v>5.577319939220615e-09</v>
+        <v>3.986361241103964e-10</v>
       </c>
       <c r="FK12" t="n">
-        <v>7.530974954761405e-09</v>
+        <v>1.963746526500998e-10</v>
       </c>
       <c r="FL12" t="n">
-        <v>3.927464575781414e-09</v>
+        <v>3.48845084763294e-11</v>
       </c>
       <c r="FM12" t="n">
-        <v>8.214112945381657e-09</v>
+        <v>2.205799293220068e-10</v>
       </c>
       <c r="FN12" t="n">
-        <v>1.302393748403574e-09</v>
+        <v>1.605411498184495e-10</v>
       </c>
       <c r="FO12" t="n">
-        <v>1.520821335532219e-08</v>
+        <v>4.670131295569924e-11</v>
       </c>
       <c r="FP12" t="n">
-        <v>1.973337049321344e-09</v>
+        <v>4.187921537335271e-11</v>
       </c>
       <c r="FQ12" t="n">
-        <v>8.710495080777036e-08</v>
+        <v>5.152882981418472e-11</v>
       </c>
       <c r="FR12" t="n">
-        <v>2.36272263975934e-08</v>
+        <v>3.065554060599496e-11</v>
       </c>
       <c r="FS12" t="n">
-        <v>1.342826472239267e-08</v>
+        <v>6.828856924379068e-12</v>
       </c>
       <c r="FT12" t="n">
-        <v>2.901948192857162e-08</v>
+        <v>1.848987629671228e-10</v>
       </c>
       <c r="FU12" t="n">
-        <v>2.746902971750842e-08</v>
+        <v>9.947792589670712e-12</v>
       </c>
       <c r="FV12" t="n">
-        <v>2.065672255469053e-08</v>
+        <v>1.301484961468979e-13</v>
       </c>
       <c r="FW12" t="n">
-        <v>5.567453165156167e-09</v>
+        <v>1.293096324461729e-10</v>
       </c>
       <c r="FX12" t="n">
-        <v>2.100114215863869e-08</v>
+        <v>2.645821409186233e-11</v>
       </c>
       <c r="FY12" t="n">
-        <v>5.029216154639471e-09</v>
+        <v>2.576184543467974e-10</v>
       </c>
       <c r="FZ12" t="n">
-        <v>3.10675218884171e-08</v>
+        <v>1.784262182447094e-10</v>
       </c>
       <c r="GA12" t="n">
-        <v>1.735184085305264e-08</v>
+        <v>3.064268977448492e-11</v>
       </c>
       <c r="GB12" t="n">
-        <v>1.430774076993657e-08</v>
+        <v>3.635147391434224e-11</v>
       </c>
       <c r="GC12" t="n">
-        <v>3.075628995929947e-08</v>
+        <v>2.269127385989833e-10</v>
       </c>
       <c r="GD12" t="n">
-        <v>1.752897382800711e-08</v>
+        <v>4.266691167043035e-11</v>
       </c>
       <c r="GE12" t="n">
-        <v>3.640657553205529e-09</v>
+        <v>5.567897809477529e-10</v>
       </c>
       <c r="GF12" t="n">
-        <v>6.9092718213426e-09</v>
+        <v>1.510939429127944e-10</v>
       </c>
       <c r="GG12" t="n">
-        <v>1.867829624302431e-08</v>
+        <v>3.0107388804268e-10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.00328652118332684</v>
+        <v>0.0005531011847779155</v>
       </c>
       <c r="B13" t="n">
-        <v>0.004481220617890358</v>
+        <v>0.00362528907135129</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004923200234770775</v>
+        <v>0.0001047136101988144</v>
       </c>
       <c r="D13" t="n">
-        <v>0.009542962536215782</v>
+        <v>0.00191434274893254</v>
       </c>
       <c r="E13" t="n">
-        <v>0.006961226463317871</v>
+        <v>0.0003132206620648503</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0008734423900023103</v>
+        <v>0.003196629928424954</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001402001944370568</v>
+        <v>0.0002103058941429481</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003950429614633322</v>
+        <v>0.0008186909253709018</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009682885371148586</v>
+        <v>0.000183352647582069</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002119134180247784</v>
+        <v>0.0008261582115665078</v>
       </c>
       <c r="K13" t="n">
-        <v>0.005352634470909834</v>
+        <v>0.00299414386972785</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007869984954595566</v>
+        <v>0.0002044920984189957</v>
       </c>
       <c r="M13" t="n">
-        <v>0.008480379357933998</v>
+        <v>0.001925593474879861</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00893336720764637</v>
+        <v>0.0004485188110265881</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002391400514170527</v>
+        <v>0.00331336073577404</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0002059924590867013</v>
+        <v>0.0003670458972919732</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.006361855659633875</v>
+        <v>9.335152572020888e-05</v>
       </c>
       <c r="R13" t="n">
-        <v>0.009239253588020802</v>
+        <v>0.0001155285281129181</v>
       </c>
       <c r="S13" t="n">
-        <v>0.001159644452854991</v>
+        <v>0.0002302873908774927</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0009586703963577747</v>
+        <v>0.0005460306419990957</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0007481257198378444</v>
+        <v>7.52300547901541e-06</v>
       </c>
       <c r="V13" t="n">
-        <v>0.00258925836533308</v>
+        <v>0.0005089603364467621</v>
       </c>
       <c r="W13" t="n">
-        <v>0.008271746337413788</v>
+        <v>0.0001060158392647281</v>
       </c>
       <c r="X13" t="n">
-        <v>0.002801756840199232</v>
+        <v>6.320312240859494e-05</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.001995471306145191</v>
+        <v>0.0002867936855182052</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0006529657985083759</v>
+        <v>1.644621079321951e-05</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0005071918712928891</v>
+        <v>0.0003982579510193318</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0004265215247869492</v>
+        <v>7.766272756271064e-05</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.001101786154322326</v>
+        <v>0.0003180743951816112</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0006322296103462577</v>
+        <v>0.0002167767088394612</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.002901586936786771</v>
+        <v>0.0004399904864840209</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.001614076318219304</v>
+        <v>0.000195693937712349</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.004074451513588428</v>
+        <v>0.0001128786025219597</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.001194325275719166</v>
+        <v>0.0007012803107500076</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.004762817174196243</v>
+        <v>0.0001834112190408632</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.003054309170693159</v>
+        <v>0.0002217896108049899</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.00195663096383214</v>
+        <v>0.0004067622940056026</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.00552635733038187</v>
+        <v>0.000575434707570821</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0009864162420853972</v>
+        <v>0.0001489442074671388</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.00253731943666935</v>
+        <v>8.208758663386106e-05</v>
       </c>
       <c r="AO13" t="n">
-        <v>3.767303496715613e-05</v>
+        <v>7.780576561344787e-05</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.003560861805453897</v>
+        <v>0.0004946758272126317</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.001014498993754387</v>
+        <v>0.0002220882452093065</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0006994800642132759</v>
+        <v>1.30567786982283e-06</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0005897079827263951</v>
+        <v>0.0003692434402182698</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.214215394109488e-05</v>
+        <v>0.0005135845276527107</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.0008362806402146816</v>
+        <v>0.002721202559769154</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.004419382661581039</v>
+        <v>0.0003084950731135905</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.004259089473634958</v>
+        <v>0.0003858261043205857</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0002167892380384728</v>
+        <v>0.0007401896291412413</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.006312024779617786</v>
+        <v>0.001625556615181267</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0005720862536691129</v>
+        <v>0.000391719862818718</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.001547486172057688</v>
+        <v>0.0007004695944488049</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.001851305481977761</v>
+        <v>0.0004734638496302068</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.00131263944786042</v>
+        <v>0.000381037563784048</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.004255141131579876</v>
+        <v>0.0007167697185650468</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0009008022607304156</v>
+        <v>0.0008419638616032898</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.003770713461562991</v>
+        <v>0.0009401847491972148</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.002143369056284428</v>
+        <v>0.001193784293718636</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0001036218891385943</v>
+        <v>0.001184621476568282</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0005508450558409095</v>
+        <v>8.501033880747855e-05</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.000149609288200736</v>
+        <v>0.0007418434252031147</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.004041831009089947</v>
+        <v>5.524299194803461e-05</v>
       </c>
       <c r="BL13" t="n">
-        <v>2.877969382097945e-05</v>
+        <v>0.0002392902242718264</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.00045382822281681</v>
+        <v>0.0008573115337640047</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.003410119563341141</v>
+        <v>0.0002665160282049328</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.001903273165225983</v>
+        <v>0.0008197749266400933</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0007786868955008686</v>
+        <v>0.000655703479424119</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0002716508461162448</v>
+        <v>2.018147461058106e-05</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0005537279648706317</v>
+        <v>0.0005778798367828131</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.002272637560963631</v>
+        <v>9.705962293082848e-05</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.001642065937630832</v>
+        <v>5.335832975106314e-05</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.001929035293869674</v>
+        <v>0.0002534226223360747</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.002964093582704663</v>
+        <v>0.001366663258522749</v>
       </c>
       <c r="BW13" t="n">
-        <v>3.376742824912071e-05</v>
+        <v>2.916247467510402e-05</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.003708526026457548</v>
+        <v>0.0001222840946866199</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.003863014280796051</v>
+        <v>0.0001342854666290805</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.0001059550995705649</v>
+        <v>0.0003008756320923567</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.0006967851077206433</v>
+        <v>0.000566161994356662</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.001957617932930589</v>
+        <v>0.0004038803454022855</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.005554284900426865</v>
+        <v>0.0003759682876989245</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.001595162320882082</v>
+        <v>8.368556154891849e-05</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.002787331584841013</v>
+        <v>0.0006943652988411486</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.00118928519077599</v>
+        <v>0.000294652912998572</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.002038601553067565</v>
+        <v>0.0004306017654016614</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.002046853536739945</v>
+        <v>0.0002177262504119426</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0004306665796320885</v>
+        <v>0.0005384949618019164</v>
       </c>
       <c r="CJ13" t="n">
-        <v>9.26706416066736e-05</v>
+        <v>0.0001834806462284178</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0007256410899572074</v>
+        <v>6.932466203579679e-05</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0008296179585158825</v>
+        <v>0.0002168817009078339</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0005048732273280621</v>
+        <v>0.00052851956570521</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.00497588561847806</v>
+        <v>0.0004568486474454403</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0006866292096674442</v>
+        <v>7.852971612010151e-05</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.003990531899034977</v>
+        <v>0.0005005650455132127</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.003882321761921048</v>
+        <v>0.0002011025790125132</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.003792098024860024</v>
+        <v>0.0001335072593064979</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0008243148913607001</v>
+        <v>0.0002063280699076131</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0002504807780496776</v>
+        <v>0.000519127061124891</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.0006892826058901846</v>
+        <v>0.0001465051318518817</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.001876095542684197</v>
+        <v>4.779230584972538e-05</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.003352274652570486</v>
+        <v>0.0005235336720943451</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.00128618476446718</v>
+        <v>0.0002475979854352772</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.001864598016254604</v>
+        <v>0.0005926906014792621</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.002627416048198938</v>
+        <v>0.0001489756541559473</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.0004883555229753256</v>
+        <v>0.0005191586678847671</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.000395980867324397</v>
+        <v>0.0002607469505164772</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0004633425851352513</v>
+        <v>0.00034335270174779</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0009400038979947567</v>
+        <v>0.0001146711510955356</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.00277517456561327</v>
+        <v>0.0002754595188889652</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.005025877617299557</v>
+        <v>0.00119916838593781</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.005261783022433519</v>
+        <v>0.0001492756273364648</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.001277895760722458</v>
+        <v>0.001043174299411476</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.00349316094070673</v>
+        <v>0.0002036827645497397</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0003746963629964739</v>
+        <v>0.0001341928145848215</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0002259674656670541</v>
+        <v>0.0007909850683063269</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.00253119901753962</v>
+        <v>0.0007833083509467542</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0008710745023563504</v>
+        <v>0.0004135882190894336</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0004738158022519201</v>
+        <v>0.0002913306234404445</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.001478959922678769</v>
+        <v>0.0003582238568924367</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.002085673855617642</v>
+        <v>0.0004414330469444394</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0004803328192792833</v>
+        <v>0.0006231306469999254</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.001150037162005901</v>
+        <v>4.78833717352245e-05</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.0005463550915010273</v>
+        <v>6.145602674223483e-05</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.0005797002231702209</v>
+        <v>4.208366954117082e-05</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.001105444971472025</v>
+        <v>9.512847464065999e-05</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.00196342240087688</v>
+        <v>0.0002852985635399818</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.0001762981119100004</v>
+        <v>5.497300298884511e-05</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.001272931229323149</v>
+        <v>6.032748206052929e-05</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0009154670988209546</v>
+        <v>0.0003013024688698351</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.001189375412650406</v>
+        <v>3.688452125061303e-05</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0006149651017040014</v>
+        <v>0.000103845028206706</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.0009723281837068498</v>
+        <v>0.0002243412018287927</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.001056795474141836</v>
+        <v>7.232128700707108e-05</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.000137037830427289</v>
+        <v>7.397886656690389e-05</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.003154562553390861</v>
+        <v>0.0002984414750244468</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.001881193835288286</v>
+        <v>0.0001745953195495531</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.002719518030062318</v>
+        <v>0.0002138932031812146</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.0004135552153456956</v>
+        <v>4.951035953126848e-05</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.002952083013951778</v>
+        <v>0.0001626324228709564</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.001223044469952583</v>
+        <v>0.0001512668677605689</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0004347413487266749</v>
+        <v>0.0004175609210506082</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0006841548020020127</v>
+        <v>0.0003056106506846845</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.002647588262334466</v>
+        <v>9.829772170633078e-05</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.0006540520116686821</v>
+        <v>0.0001615532382857054</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.001582185854203999</v>
+        <v>0.0002862208057194948</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.001954194623976946</v>
+        <v>0.0001874473091447726</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.003617891576141119</v>
+        <v>0.0001738429418765008</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.0008266229415312409</v>
+        <v>0.0002685307408683002</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.004654129967093468</v>
+        <v>0.0002255287836305797</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0005362550728023052</v>
+        <v>0.0006983275525271893</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0009601580677554011</v>
+        <v>0.0002513341314624995</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0005042612901888788</v>
+        <v>0.0005173356621526182</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.001921423128806055</v>
+        <v>1.998383595491759e-05</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.001573560643009841</v>
+        <v>7.216902304207906e-05</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.003252678085118532</v>
+        <v>0.000485931639559567</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.001591452630236745</v>
+        <v>0.0001452969299862161</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.001687285024672747</v>
+        <v>0.0003975777071900666</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.002455914858728647</v>
+        <v>0.0001518618810223415</v>
       </c>
       <c r="FC13" t="n">
-        <v>7.790712697897106e-05</v>
+        <v>0.0005122433649376035</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0002706335799302906</v>
+        <v>0.0002944866428151727</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0007757269195280969</v>
+        <v>7.670938066439703e-05</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.001254123053513467</v>
+        <v>0.0002595475525595248</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.0005830961163155735</v>
+        <v>0.0002107636537402868</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.001462513580918312</v>
+        <v>0.0003886354097630829</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.001778248930349946</v>
+        <v>0.0002129164786310866</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.001215492025949061</v>
+        <v>0.0002578881976660341</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.001123281545005739</v>
+        <v>0.0001483218802604824</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.001179137616418302</v>
+        <v>0.0001243357692146674</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.001058165333233774</v>
+        <v>5.657807923853397e-05</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.001770401140674949</v>
+        <v>7.971017475938424e-05</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.00012362384586595</v>
+        <v>7.684493175474927e-05</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0007831985130906105</v>
+        <v>0.0003894041874445975</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.003615578636527061</v>
+        <v>0.0001278280251426622</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.0005648027872666717</v>
+        <v>4.91371683892794e-05</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.00252873357385397</v>
+        <v>0.0003756641817744821</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.001443077577278018</v>
+        <v>0.001548519590869546</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.00113068672362715</v>
+        <v>0.0003704233677126467</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.001248744782060385</v>
+        <v>0.0001750358933350071</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.001542452373541892</v>
+        <v>0.0004871929413639009</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.001166186877526343</v>
+        <v>9.354714711662382e-05</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.001025599194690585</v>
+        <v>0.0004175776266492903</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0002487249439582229</v>
+        <v>0.0004009910335298628</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.0009243194945156574</v>
+        <v>3.827709952020086e-05</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.001060160691849887</v>
+        <v>0.0005152195226401091</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.0008843127870932221</v>
+        <v>0.0002328344562556595</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.001368565252050757</v>
+        <v>0.0003741009277291596</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.001346806529909372</v>
+        <v>0.00116399850230664</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0002718477044254541</v>
+        <v>0.000547956267837435</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.002735049929469824</v>
+        <v>0.0004109058936592191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0006984120700508356</v>
+        <v>0.001070183236151934</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0008985248859971762</v>
+        <v>0.0005242241895757616</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001560500357300043</v>
+        <v>0.002682355465367436</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001124096219427884</v>
+        <v>0.002169081708416343</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002444393001496792</v>
+        <v>0.001418792875483632</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004020988009870052</v>
+        <v>0.0005740289343520999</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0009204964735545218</v>
+        <v>0.0005921581177972257</v>
       </c>
       <c r="H14" t="n">
-        <v>0.006131035275757313</v>
+        <v>0.0003173980803694576</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0009825334418565035</v>
+        <v>0.0005317417089827359</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002183053875342011</v>
+        <v>0.0008868294535204768</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002955442760139704</v>
+        <v>0.0005035190843045712</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002155778231099248</v>
+        <v>0.002056797035038471</v>
       </c>
       <c r="M14" t="n">
-        <v>0.000933850125875324</v>
+        <v>0.002275720005854964</v>
       </c>
       <c r="N14" t="n">
-        <v>0.002821869449689984</v>
+        <v>5.615689588012174e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00428433483466506</v>
+        <v>0.0006294577615335584</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0008358749328181148</v>
+        <v>0.0003370787017047405</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.006776009686291218</v>
+        <v>5.25014620507136e-05</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0005606167251244187</v>
+        <v>0.0009769813623279333</v>
       </c>
       <c r="S14" t="n">
-        <v>0.001504979911260307</v>
+        <v>0.0003254271578043699</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0003382109862286597</v>
+        <v>0.0004239756963215768</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0002397670468781143</v>
+        <v>0.0004135834751650691</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0002839247754309326</v>
+        <v>0.0004531383456196636</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0004041215288452804</v>
+        <v>0.0003475963312666863</v>
       </c>
       <c r="X14" t="n">
-        <v>0.001071279402822256</v>
+        <v>0.0001731461670715362</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0003388597397133708</v>
+        <v>0.0003700978995766491</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.001682251575402915</v>
+        <v>0.0002574885438662022</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.322843885049224e-05</v>
+        <v>4.045624518766999e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0003787151363212615</v>
+        <v>0.0008794124587439001</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0001928575220517814</v>
+        <v>6.927968934178352e-05</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.808882320299745e-05</v>
+        <v>9.643657540436834e-05</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.001068601151928306</v>
+        <v>0.0009182635694742203</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.002292063785716891</v>
+        <v>0.0007593284244649112</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0005947057507000864</v>
+        <v>3.352655767230317e-06</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.001967648509889841</v>
+        <v>4.335808625910431e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.0007528991554863751</v>
+        <v>0.0003171199641656131</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.0001745179615681991</v>
+        <v>0.000360210775397718</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.0003658819478005171</v>
+        <v>0.0002627731009852141</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.0004888091934844851</v>
+        <v>4.687078762799501e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.001361999660730362</v>
+        <v>2.150512591470033e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.0002191639505326748</v>
+        <v>0.0001670619240030646</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.00308078364469111</v>
+        <v>0.0006517691072076559</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.0003046611382160336</v>
+        <v>0.0001562025572638959</v>
       </c>
       <c r="AQ14" t="n">
-        <v>5.060081821284257e-05</v>
+        <v>0.0002959671546705067</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.0004337050195317715</v>
+        <v>7.092978921718895e-05</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.000404249643906951</v>
+        <v>0.0001990087330341339</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.001096619293093681</v>
+        <v>0.0008846773416735232</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.002118843840435147</v>
+        <v>0.0009676560875959694</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.0007397377048619092</v>
+        <v>0.001500040758401155</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.0001211897397297435</v>
+        <v>0.001869140774942935</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0008747010724619031</v>
+        <v>0.0003433837846387178</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.003040173556655645</v>
+        <v>0.000686434970702976</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.0002448398154228926</v>
+        <v>0.0004373713163658977</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.002020890824496746</v>
+        <v>0.0005069856415502727</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.00019178117509</v>
+        <v>0.0004045004025101662</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.0006683808169327676</v>
+        <v>0.0007965218974277377</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.0006560437614098191</v>
+        <v>0.001543106860481203</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.0008539134287275374</v>
+        <v>0.0003453704121056944</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.001445102039724588</v>
+        <v>0.0007806475041434169</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.001334924018010497</v>
+        <v>0.0006162742502056062</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.0002925996668636799</v>
+        <v>0.001003530924208462</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.001476802630349994</v>
+        <v>0.0006337865488603711</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.001565495971590281</v>
+        <v>7.83940777182579e-07</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.0001843620848376304</v>
+        <v>0.0008492241031490266</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.0001314130931859836</v>
+        <v>4.008491669083014e-05</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.0007445140508934855</v>
+        <v>0.0005365857505239546</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.0006932637188583612</v>
+        <v>0.000208970857784152</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.0003461525193415582</v>
+        <v>3.969223689637147e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>1.616976442164741e-05</v>
+        <v>0.0005491788615472615</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.0006695236079394817</v>
+        <v>7.463518704753369e-05</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.001247894135303795</v>
+        <v>2.272996061947197e-05</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.0002512962382752448</v>
+        <v>0.0002855139318853617</v>
       </c>
       <c r="BT14" t="n">
-        <v>2.370517904637381e-06</v>
+        <v>0.0002031073527177796</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.0004716240800917149</v>
+        <v>0.000238328633713536</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.0006076691788621247</v>
+        <v>0.0005807155393995345</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.0002187233767472208</v>
+        <v>0.00103259552270174</v>
       </c>
       <c r="BX14" t="n">
-        <v>3.481465682853013e-05</v>
+        <v>0.001248363638296723</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.000633911055047065</v>
+        <v>0.0004832896811421961</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.002354330150410533</v>
+        <v>0.0002305278612766415</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.0005540882120840251</v>
+        <v>0.0001171511685242876</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.0020817203912884</v>
+        <v>0.000376773503376171</v>
       </c>
       <c r="CC14" t="n">
-        <v>5.845051782671362e-05</v>
+        <v>0.0004659165279008448</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.0001612342748558149</v>
+        <v>0.0003178826882503927</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.000252756173722446</v>
+        <v>6.014472091919743e-05</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.0005294544389471412</v>
+        <v>0.0007004234939813614</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.000425310165155679</v>
+        <v>0.0003655343316495419</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.0008307928219437599</v>
+        <v>0.0003351240884512663</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.0008180425502359867</v>
+        <v>4.984392944606952e-05</v>
       </c>
       <c r="CJ14" t="n">
-        <v>9.851919458014891e-05</v>
+        <v>0.0002352340234210715</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.001084677060134709</v>
+        <v>0.0001768205547705293</v>
       </c>
       <c r="CL14" t="n">
-        <v>4.193045970168896e-05</v>
+        <v>6.132340058684349e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.0009867070475593209</v>
+        <v>0.0009825477609410882</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.001861359691247344</v>
+        <v>0.0008236478315666318</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.001021998701617122</v>
+        <v>1.780633465386927e-05</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.00142859376501292</v>
+        <v>0.0003929930098820478</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.0002257958258269355</v>
+        <v>0.0002285032824147493</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.0001934195024659857</v>
+        <v>0.000305788271361962</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.0005472323973663151</v>
+        <v>0.000214299390790984</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.0009944007033482194</v>
+        <v>0.001059880945831537</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.0003648306883405894</v>
+        <v>0.0002232005790574476</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.0003453056851867586</v>
+        <v>0.0002394314069533721</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.0003226128756068647</v>
+        <v>0.000229482728173025</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.000605397333856672</v>
+        <v>0.0004642331041395664</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.000400026619900018</v>
+        <v>0.000405839120503515</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.000715717498678714</v>
+        <v>0.0001458048791391775</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.0008292694692499936</v>
+        <v>2.162644886993803e-05</v>
       </c>
       <c r="DB14" t="n">
-        <v>1.244339364347979e-05</v>
+        <v>0.0002105302119161934</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.001285049831494689</v>
+        <v>0.0001142617402365431</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.0001163606502814218</v>
+        <v>1.551390232634731e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.00278860074467957</v>
+        <v>8.069344039540738e-05</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.001317214220762253</v>
+        <v>0.0009107223595492542</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.001168409711681306</v>
+        <v>0.000819950713776052</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.0007615311769768596</v>
+        <v>0.0002655238495208323</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.0002823757531587034</v>
+        <v>0.0001158177401521243</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.001487602712586522</v>
+        <v>0.0002451590844430029</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.0002453200286254287</v>
+        <v>0.0008671774412505329</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.0002065594017039984</v>
+        <v>0.0002516661770641804</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.0007197453523986042</v>
+        <v>0.000287227361695841</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.0005366627010516822</v>
+        <v>2.635354758240283e-05</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.0007366487989202142</v>
+        <v>0.0006005583563819528</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.0005520802224054933</v>
+        <v>0.0004657107638195157</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.000526918622199446</v>
+        <v>7.76882516220212e-05</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.001119610271416605</v>
+        <v>0.0009208928095176816</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.0007098111091181636</v>
+        <v>0.000384739541914314</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.0008096139063127339</v>
+        <v>0.0003924164338968694</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.0001613398926565424</v>
+        <v>0.0001353481638943776</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.0007295421091839671</v>
+        <v>0.0006486767088063061</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.0004301770823076367</v>
+        <v>0.0001973928592633456</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.0001367611694149673</v>
+        <v>0.0008868408622220159</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.0007465751259587705</v>
+        <v>0.0002827206335496157</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.000119452117360197</v>
+        <v>0.00017662147001829</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.0001450058771297336</v>
+        <v>0.0004324231122154742</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.0001801312027964741</v>
+        <v>0.000594095850829035</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.0004670048074331135</v>
+        <v>3.5028402635362e-05</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.000129566848045215</v>
+        <v>0.0001719928113743663</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.0003867620544042438</v>
+        <v>3.601855132728815e-05</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.001243666163645685</v>
+        <v>2.699517244764138e-05</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.001654855557717383</v>
+        <v>0.0003040713490918279</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.000133056310005486</v>
+        <v>0.0007177659426815808</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.0004488804843276739</v>
+        <v>0.0008410761947743595</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.0003913914551958442</v>
+        <v>1.045762383000692e-05</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.0006062405882403255</v>
+        <v>6.241200026124716e-06</v>
       </c>
       <c r="EL14" t="n">
-        <v>2.203281837864779e-06</v>
+        <v>0.000284853857010603</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.001086008618585765</v>
+        <v>8.849102596286684e-05</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.0002727368264459074</v>
+        <v>0.0002963391889352351</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.0002350229624425992</v>
+        <v>2.541033609304577e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.0002375954791205004</v>
+        <v>0.0005958336405456066</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.0007726291078142822</v>
+        <v>0.0003070450620725751</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.0003048611979465932</v>
+        <v>0.0004067666013725102</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.0008920283289626241</v>
+        <v>0.0002109721972374246</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.0004408526001498103</v>
+        <v>9.774179488886148e-05</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.0001540434604976326</v>
+        <v>0.0003155407612212002</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.00124087929725647</v>
+        <v>1.3315071555553e-05</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.0005660381866618991</v>
+        <v>0.0003410975623410195</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.0002593274984974414</v>
+        <v>0.000243998336372897</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.0003835785901173949</v>
+        <v>0.0002914717770181596</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.000545267597772181</v>
+        <v>0.0006130626425147057</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.0006461284938268363</v>
+        <v>0.0003907536738552153</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.001113392761908472</v>
+        <v>0.0001977596548385918</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.0009140154579654336</v>
+        <v>8.900729881133884e-06</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.0001012021166388877</v>
+        <v>0.0001807493099477142</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.001236596726812422</v>
+        <v>9.517658327240497e-05</v>
       </c>
       <c r="FF14" t="n">
-        <v>2.890906398533843e-05</v>
+        <v>0.0001608886668691412</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.0002675975556485355</v>
+        <v>9.298199438489974e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>2.635038254084066e-05</v>
+        <v>0.0004095019539818168</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.0007519334321841598</v>
+        <v>1.380120556859765e-05</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.000652581627946347</v>
+        <v>0.0004054601886309683</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.000327790214214474</v>
+        <v>0.0002826677518896759</v>
       </c>
       <c r="FL14" t="n">
-        <v>3.639960777945817e-05</v>
+        <v>0.0003187778347637504</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.0001915266911964864</v>
+        <v>0.0001936134358402342</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.0005021011456847191</v>
+        <v>0.0004320171719882637</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.0002790978469420224</v>
+        <v>0.0002905826841015369</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.0009702665265649557</v>
+        <v>0.0004354143457021564</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.0002598765131551772</v>
+        <v>0.0002307973627466708</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.0003146814415231347</v>
+        <v>0.0006244128453545272</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.0001431633572792634</v>
+        <v>5.568485357798636e-05</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.0007047775434330106</v>
+        <v>4.509325663093477e-05</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.00138101086486131</v>
+        <v>0.0003437700506765395</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.0009490889497101307</v>
+        <v>0.0001237188844243065</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.0007714633247815073</v>
+        <v>0.000308311078697443</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.0001246315514435992</v>
+        <v>0.000107096871943213</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.0004655870143324137</v>
+        <v>0.000135502777993679</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.0001600450777914375</v>
+        <v>0.0005420373636297882</v>
       </c>
       <c r="GA14" t="n">
-        <v>2.087483881041408e-05</v>
+        <v>9.501620661467314e-05</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.0002997371484525502</v>
+        <v>4.416062438394874e-06</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.0006812213105149567</v>
+        <v>0.0005632381653413177</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.0002532844373490661</v>
+        <v>0.0008309768163599074</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.000295848265523091</v>
+        <v>0.0002630728995427489</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.0001935385225806385</v>
+        <v>0.0001499563513789326</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.0004473866720218211</v>
+        <v>2.216751818195917e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.008139462210238e-05</v>
+        <v>5.99786017119186e-06</v>
       </c>
       <c r="B15" t="n">
-        <v>0.000189807906281203</v>
+        <v>0.0001210503105539829</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005228085210546851</v>
+        <v>1.985249036806636e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001388874603435397</v>
+        <v>4.851119956583716e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0009325782302767038</v>
+        <v>5.99705490458291e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0002120459103025496</v>
+        <v>5.99590057390742e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>2.044538268819451e-05</v>
+        <v>2.350299109821208e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002067882567644119</v>
+        <v>2.821531234076247e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>7.023986836429685e-05</v>
+        <v>9.561234037391841e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>4.387221633805893e-05</v>
+        <v>1.15713646664517e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0003625094541348517</v>
+        <v>9.425223834114149e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004860300978180021</v>
+        <v>3.524062094584224e-06</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0009245554101653397</v>
+        <v>3.06061738228891e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001538796233944595</v>
+        <v>4.385720967547968e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0003498770529404283</v>
+        <v>5.345715180737898e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0003747009322978556</v>
+        <v>2.537144064262975e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.002532907528802752</v>
+        <v>4.556904968922026e-06</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0001548237778479233</v>
+        <v>8.909118150768336e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>7.095208275131881e-05</v>
+        <v>8.957767363426683e-07</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0002178386930609122</v>
+        <v>1.708003583189566e-05</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0001296468544751406</v>
+        <v>2.826865511451615e-06</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0001110697048716247</v>
+        <v>2.217849578300957e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>0.001006042584776878</v>
+        <v>1.722491288091987e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0002106402243953198</v>
+        <v>1.863746183516923e-05</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.599505048943684e-05</v>
+        <v>6.268486231419956e-06</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0004361233150120825</v>
+        <v>1.6638012311887e-05</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0001047524274326861</v>
+        <v>9.982203664549161e-06</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0004599609819706529</v>
+        <v>7.672882929909974e-06</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0002311916323378682</v>
+        <v>1.362447073915973e-05</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0003931907413061708</v>
+        <v>2.1707692212658e-06</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.000679418386425823</v>
+        <v>8.614036232756916e-06</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.0001606087025720626</v>
+        <v>1.512737071607262e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.376314665132668e-06</v>
+        <v>4.681379778048722e-06</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0006064811605028808</v>
+        <v>9.081031748792157e-06</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.0001406618393957615</v>
+        <v>8.091428753687069e-06</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.0001286237529711798</v>
+        <v>4.920727860735497e-06</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.000371523346984759</v>
+        <v>1.245277962880209e-05</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.00015153011190705</v>
+        <v>2.221997783635743e-05</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.0002356342447455972</v>
+        <v>2.563771886343602e-06</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.006135425996035e-05</v>
+        <v>7.894257578300312e-06</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0004509271821007133</v>
+        <v>3.859800017380621e-06</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.0001445437083020806</v>
+        <v>2.335721364943311e-05</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0003412113874219358</v>
+        <v>1.003376837616088e-06</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.0001360630849376321</v>
+        <v>1.099936980608618e-05</v>
       </c>
       <c r="AS15" t="n">
-        <v>4.762871412822278e-07</v>
+        <v>1.406978662998881e-05</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.0003438758139964193</v>
+        <v>7.337956049013883e-06</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.0001971768506336957</v>
+        <v>8.235047425841913e-05</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.0001044665696099401</v>
+        <v>1.251908088306664e-05</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.0004464654775802046</v>
+        <v>4.714693204732612e-06</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.0007179492386057973</v>
+        <v>2.00087160919793e-05</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.0001138696243287995</v>
+        <v>3.587641549529508e-05</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.0007308232598006725</v>
+        <v>1.736048716338701e-06</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.001059693866409361</v>
+        <v>1.80827992153354e-05</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.0001485295069869608</v>
+        <v>9.518105798633769e-06</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.0003206446999683976</v>
+        <v>6.679400485154474e-06</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.0001302639866480604</v>
+        <v>1.942867675097659e-05</v>
       </c>
       <c r="BE15" t="n">
-        <v>5.422389949671924e-05</v>
+        <v>2.146295082638972e-05</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.0007119650254026055</v>
+        <v>1.443008113710675e-05</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.0002347142290091142</v>
+        <v>4.419406468514353e-05</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.0004721754230558872</v>
+        <v>1.164966852229554e-05</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.000270253891358152</v>
+        <v>1.768121910572518e-05</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.0004036798200104386</v>
+        <v>1.925318065332249e-05</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.0001420331827830523</v>
+        <v>6.859113454993349e-06</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.0001564679696457461</v>
+        <v>1.097332824429031e-05</v>
       </c>
       <c r="BM15" t="n">
-        <v>9.293384937336668e-05</v>
+        <v>2.879385465348605e-05</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.000243628368480131</v>
+        <v>1.285343296331121e-05</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.0003045788034796715</v>
+        <v>7.834205462131649e-06</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.0002700968470890075</v>
+        <v>2.273137170050177e-06</v>
       </c>
       <c r="BQ15" t="n">
-        <v>2.236106411146466e-08</v>
+        <v>8.656017598696053e-06</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.0004041604697704315</v>
+        <v>4.705586434283759e-06</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.000327535904943943</v>
+        <v>5.951725142949726e-06</v>
       </c>
       <c r="BT15" t="n">
-        <v>3.666427437565289e-05</v>
+        <v>9.168913493340369e-06</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.000933523231651634</v>
+        <v>6.703675353492144e-06</v>
       </c>
       <c r="BV15" t="n">
-        <v>1.155418794951402e-05</v>
+        <v>5.076784873381257e-05</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.0002426648861728609</v>
+        <v>2.474816392350476e-05</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.0001113236648961902</v>
+        <v>1.113477264880203e-05</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.0003315345093142241</v>
+        <v>1.577339753566775e-05</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.0001903331140056252</v>
+        <v>4.891796379524749e-06</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.0005574981914833188</v>
+        <v>6.764526915503666e-06</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.0007372634136117995</v>
+        <v>5.685876203642692e-06</v>
       </c>
       <c r="CC15" t="n">
-        <v>2.579561623861082e-05</v>
+        <v>1.051495837600669e-05</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.0003053172549698502</v>
+        <v>5.33011643710779e-08</v>
       </c>
       <c r="CE15" t="n">
-        <v>6.182753713801503e-05</v>
+        <v>1.869632615125738e-05</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.0001290179352508858</v>
+        <v>7.360177733062301e-06</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.0001891696010716259</v>
+        <v>8.03492366685532e-06</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0002775527827907354</v>
+        <v>1.908392164295947e-07</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.0001040427960106172</v>
+        <v>1.136659011535812e-05</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.0001408783136866987</v>
+        <v>4.879997050011298e-06</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.000425367004936561</v>
+        <v>4.150319000473246e-06</v>
       </c>
       <c r="CL15" t="n">
-        <v>5.062018681201153e-05</v>
+        <v>5.830835107190069e-06</v>
       </c>
       <c r="CM15" t="n">
-        <v>3.876256960211322e-05</v>
+        <v>1.902221265481785e-05</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.0004448523104656488</v>
+        <v>7.190580618043896e-06</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.0003965121577493846</v>
+        <v>5.703848728444427e-06</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.0001779279700713232</v>
+        <v>6.001099791319575e-06</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.0006457884446717799</v>
+        <v>1.190149032481713e-05</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.0006926355417817831</v>
+        <v>1.00989309430588e-05</v>
       </c>
       <c r="CS15" t="n">
-        <v>4.089397407369688e-06</v>
+        <v>2.205769851570949e-05</v>
       </c>
       <c r="CT15" t="n">
-        <v>1.674857048783451e-05</v>
+        <v>1.772862560756039e-05</v>
       </c>
       <c r="CU15" t="n">
-        <v>4.544149123830721e-05</v>
+        <v>1.520919568065437e-06</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.0002249271492473781</v>
+        <v>3.331754214741522e-07</v>
       </c>
       <c r="CW15" t="n">
-        <v>8.40178836369887e-05</v>
+        <v>1.57350477820728e-05</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.0001229559420607984</v>
+        <v>8.420531230513006e-06</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.0002040377876255661</v>
+        <v>1.27651946968399e-05</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.0002791965962387621</v>
+        <v>1.852504283306189e-06</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.0001478000776842237</v>
+        <v>1.579371746629477e-05</v>
       </c>
       <c r="DB15" t="n">
-        <v>8.103906293399632e-05</v>
+        <v>3.112233571300749e-06</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.0005136107793077826</v>
+        <v>7.459331754944287e-06</v>
       </c>
       <c r="DD15" t="n">
-        <v>7.688228652114049e-05</v>
+        <v>1.462197133150767e-06</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.0004796038847416639</v>
+        <v>4.726956831291318e-06</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.0004694417293649167</v>
+        <v>2.462342126818839e-05</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.000136048678541556</v>
+        <v>4.535534117167117e-06</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.0001491756120231003</v>
+        <v>3.206069231964648e-05</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.0003953308332711458</v>
+        <v>7.966709745232947e-06</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.0001884175289887935</v>
+        <v>3.281285671619116e-06</v>
       </c>
       <c r="DK15" t="n">
-        <v>7.240888953674585e-05</v>
+        <v>1.93261839740444e-05</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.0001151473479694687</v>
+        <v>1.305141449847724e-05</v>
       </c>
       <c r="DM15" t="n">
-        <v>2.717837742238771e-05</v>
+        <v>1.177073045255383e-05</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.000168602928170003</v>
+        <v>5.026999133406207e-06</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.0001307621714659035</v>
+        <v>7.914016350696329e-06</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.0001667580363573506</v>
+        <v>1.647102408242063e-06</v>
       </c>
       <c r="DQ15" t="n">
-        <v>8.297295426018536e-05</v>
+        <v>3.618323944465374e-06</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.0006526801735162735</v>
+        <v>2.525655872887e-06</v>
       </c>
       <c r="DS15" t="n">
-        <v>7.576665666420013e-06</v>
+        <v>1.193718890135642e-05</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.0003687349380925298</v>
+        <v>5.891160526516614e-06</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.0001629237522138283</v>
+        <v>7.634464054717682e-06</v>
       </c>
       <c r="DV15" t="n">
-        <v>8.601287845522165e-05</v>
+        <v>6.310720436886186e-06</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.0001159494640887715</v>
+        <v>3.048755843337858e-06</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.0004359330632723868</v>
+        <v>2.338362946829875e-06</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.0001349645026493818</v>
+        <v>1.289136616833275e-05</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.0002019752282649279</v>
+        <v>1.322751586485538e-06</v>
       </c>
       <c r="EA15" t="n">
-        <v>1.711613549559843e-05</v>
+        <v>5.04848458149354e-06</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.0003445057373028249</v>
+        <v>4.525616532191634e-06</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.0001523485698271543</v>
+        <v>8.512369049640256e-07</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.000129752850625664</v>
+        <v>8.572059414291289e-06</v>
       </c>
       <c r="EE15" t="n">
-        <v>5.260175748844631e-05</v>
+        <v>6.937707439647056e-07</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.000106089748442173</v>
+        <v>5.773405973741319e-06</v>
       </c>
       <c r="EG15" t="n">
-        <v>2.631104507599957e-05</v>
+        <v>1.540171251690481e-05</v>
       </c>
       <c r="EH15" t="n">
-        <v>5.249692185316235e-05</v>
+        <v>9.544208296574652e-06</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.000433488457929343</v>
+        <v>2.803829374897759e-06</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.0003524034400470555</v>
+        <v>8.28500105853891e-06</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.0002690315595827997</v>
+        <v>8.511537089361809e-06</v>
       </c>
       <c r="EL15" t="n">
-        <v>6.875525286886841e-07</v>
+        <v>5.96288464294048e-06</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.000622862484306097</v>
+        <v>2.707903831833391e-06</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.0002648010267876089</v>
+        <v>6.714560640830314e-08</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.0002976339310407639</v>
+        <v>5.163519745110534e-06</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.0002316723112016916</v>
+        <v>8.14022496342659e-06</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.0002480128896422684</v>
+        <v>1.370988411508733e-05</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.0001006653910735622</v>
+        <v>1.606374280527234e-05</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.0003670316946227103</v>
+        <v>9.645586942497175e-06</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.0002109600318362936</v>
+        <v>1.535720366518945e-05</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.0001203568899654783</v>
+        <v>6.501652933366131e-06</v>
       </c>
       <c r="EV15" t="n">
-        <v>5.514821168617345e-05</v>
+        <v>1.951166268554516e-05</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.000152808366692625</v>
+        <v>2.271710400236771e-06</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.0002185430203098804</v>
+        <v>1.790878741303459e-06</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.0001295875408686697</v>
+        <v>1.46308357216185e-05</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.000154652661876753</v>
+        <v>5.551692993321922e-06</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.0001729166251607239</v>
+        <v>1.215464271808742e-05</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.0004039613995701075</v>
+        <v>2.924494765466079e-06</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.0001750663504935801</v>
+        <v>1.222731953021139e-05</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.0001762090105330572</v>
+        <v>7.215533969429089e-06</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.0004777302674483508</v>
+        <v>6.210501851455774e-06</v>
       </c>
       <c r="FF15" t="n">
-        <v>6.423241575248539e-05</v>
+        <v>6.7107830545865e-06</v>
       </c>
       <c r="FG15" t="n">
-        <v>4.602342596626841e-05</v>
+        <v>6.739264790667221e-06</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.0001827833475545049</v>
+        <v>1.061777220456861e-05</v>
       </c>
       <c r="FI15" t="n">
-        <v>1.513379902462475e-05</v>
+        <v>8.46879538585199e-06</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.0001871356944320723</v>
+        <v>1.66459667525487e-05</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.0004387477820273489</v>
+        <v>4.931749117531581e-06</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.0004051697324030101</v>
+        <v>9.084741577680688e-06</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.0003030916850548238</v>
+        <v>3.594415375118842e-06</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.0003868047497235239</v>
+        <v>8.135753887472674e-06</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.0001339239825028926</v>
+        <v>8.220767085731495e-06</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.0006950623355805874</v>
+        <v>2.534372470108792e-06</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.0003156156162731349</v>
+        <v>4.386961336422246e-06</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.000479554757475853</v>
+        <v>1.104487273551058e-05</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.0001202604253194295</v>
+        <v>1.957268614205532e-05</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.0003784155414905399</v>
+        <v>9.523603694105987e-06</v>
       </c>
       <c r="FU15" t="n">
-        <v>9.442148439120501e-05</v>
+        <v>1.945634039657307e-06</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.0001581616088515148</v>
+        <v>8.538063411833718e-06</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.0003872193628922105</v>
+        <v>6.747131919837557e-06</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.0003424400929361582</v>
+        <v>8.983845418697456e-07</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.0003548150998540223</v>
+        <v>2.253436468890868e-05</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.0003357842506375164</v>
+        <v>8.484075806336477e-07</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.0001657751272432506</v>
+        <v>4.361500941740815e-06</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.000379925622837618</v>
+        <v>1.153936864284333e-05</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.0001627526653464884</v>
+        <v>1.167244045063853e-05</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.0003490847011562437</v>
+        <v>1.639102265471593e-05</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.0006744800484739244</v>
+        <v>4.67333520646207e-05</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.0001377250300720334</v>
+        <v>5.13345639774343e-07</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.0001971946039702743</v>
+        <v>1.356988605039078e-06</v>
       </c>
     </row>
   </sheetData>
